--- a/results2/results.xlsx
+++ b/results2/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\luxai\simple\results2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44653564-6C66-4786-BA90-B0113A6A05DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B36342-F1A0-4BF6-8B9C-219BC0F35787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1884" yWindow="2232" windowWidth="9192" windowHeight="8724" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="light" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="254">
   <si>
     <t>log:C:/git/luxai/light/main</t>
   </si>
@@ -771,6 +770,33 @@
   </si>
   <si>
     <t>rule444</t>
+  </si>
+  <si>
+    <t>447c</t>
+  </si>
+  <si>
+    <t>451b</t>
+  </si>
+  <si>
+    <t>imit2</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>465b</t>
+  </si>
+  <si>
+    <t>imit3</t>
+  </si>
+  <si>
+    <t>466b</t>
+  </si>
+  <si>
+    <t>467b</t>
+  </si>
+  <si>
+    <t>XXX</t>
   </si>
 </sst>
 </file>
@@ -1255,7 +1281,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1264,6 +1290,9 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1592,12 +1621,12 @@
       <selection activeCell="F1" sqref="F1:F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="18.9453125" customWidth="1"/>
+    <col min="1" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1617,7 +1646,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1637,7 +1666,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1657,7 +1686,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1677,7 +1706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1697,7 +1726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1717,7 +1746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1737,7 +1766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1757,7 +1786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1777,7 +1806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1797,7 +1826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1817,7 +1846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1837,7 +1866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1857,7 +1886,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1877,7 +1906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1897,7 +1926,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1917,7 +1946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1937,7 +1966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -1957,7 +1986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1977,7 +2006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -1997,7 +2026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -2017,7 +2046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -2037,7 +2066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -2057,7 +2086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -2077,7 +2106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -2097,7 +2126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -2117,7 +2146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -2150,12 +2179,12 @@
       <selection activeCell="D41" sqref="D1:D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.578125" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -2169,7 +2198,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -2183,7 +2212,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -2197,7 +2226,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -2211,7 +2240,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -2225,7 +2254,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -2239,7 +2268,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -2253,7 +2282,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -2267,7 +2296,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -2281,7 +2310,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -2295,7 +2324,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -2309,7 +2338,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -2323,7 +2352,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -2337,7 +2366,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -2351,7 +2380,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -2365,7 +2394,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -2379,7 +2408,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -2393,7 +2422,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -2407,7 +2436,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -2421,7 +2450,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -2435,7 +2464,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -2449,7 +2478,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -2463,7 +2492,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -2477,7 +2506,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -2491,7 +2520,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2505,7 +2534,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -2519,7 +2548,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -2533,7 +2562,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -2547,7 +2576,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -2561,7 +2590,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -2575,7 +2604,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -2589,7 +2618,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2603,7 +2632,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2617,7 +2646,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -2631,7 +2660,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -2645,7 +2674,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -2659,7 +2688,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -2673,7 +2702,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -2687,7 +2716,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>31</v>
       </c>
@@ -2701,7 +2730,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -2715,7 +2744,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -2736,296 +2765,307 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7DEE342-DBC6-45F5-B8C3-642DC33E53FC}">
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:N87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="8.83984375" style="3"/>
-    <col min="5" max="5" width="8.83984375" style="7"/>
+    <col min="1" max="1" width="8.88671875" style="8"/>
+    <col min="4" max="6" width="8.88671875" style="3"/>
+    <col min="7" max="7" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C2">
         <v>84</v>
       </c>
-      <c r="G2" s="3" t="e">
+      <c r="I2" s="3" t="e">
         <f>IS</f>
         <v>#NAME?</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C3">
         <v>75</v>
       </c>
-      <c r="E3" s="7">
+      <c r="G3" s="7">
         <v>1369.3</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C4">
         <v>78</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C5">
         <v>87</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="I5" s="3"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C6">
         <v>85</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="I6" s="3"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C7">
         <v>84</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="I7" s="3"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C8">
         <v>82</v>
       </c>
-      <c r="E8" s="7">
+      <c r="G8" s="7">
         <v>1319.9</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="3"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="3" t="s">
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="E9" s="7">
+      <c r="G9" s="7">
         <v>1338</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C10">
         <v>83</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="I10" s="3"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C11">
         <v>74</v>
       </c>
-      <c r="E11" s="7">
+      <c r="G11" s="7">
         <v>1334.9</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="I11" s="3"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C12">
         <v>85</v>
       </c>
-      <c r="E12" s="7">
+      <c r="G12" s="7">
         <v>1341.9</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="3"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C13">
         <v>86</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="I13" s="3"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C14">
         <v>93</v>
       </c>
-      <c r="E14" s="7">
+      <c r="G14" s="7">
         <v>1343.4</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="I14" s="3"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C15">
         <v>92</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="I15" s="3"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C16">
         <v>88</v>
       </c>
-      <c r="E16" s="7">
+      <c r="G16" s="7">
         <v>1328.4</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="I16" s="3"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C17">
         <v>85</v>
       </c>
-      <c r="E17" s="7">
+      <c r="G17" s="7">
         <v>1293.3</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="I17" s="3"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C18">
         <v>81</v>
       </c>
-      <c r="E18" s="7">
+      <c r="G18" s="7">
         <v>1328.2</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="I18" s="3"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B19">
@@ -3034,56 +3074,56 @@
       <c r="C19">
         <v>77</v>
       </c>
-      <c r="D19" s="3">
+      <c r="F19" s="3">
         <f>B19+C19</f>
         <v>89</v>
       </c>
-      <c r="E19" s="7">
+      <c r="G19" s="7">
         <v>1329.7</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="I19" s="3"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C20">
         <v>80</v>
       </c>
-      <c r="E20" s="7">
+      <c r="G20" s="7">
         <v>1303.7</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="I20" s="3"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C21">
         <v>77</v>
       </c>
-      <c r="E21" s="7">
+      <c r="G21" s="7">
         <v>1337.6</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="I21" s="3"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" t="s">
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B22">
@@ -3092,22 +3132,22 @@
       <c r="C22">
         <v>72</v>
       </c>
-      <c r="D22" s="3">
+      <c r="F22" s="3">
         <f>B22+C22</f>
         <v>84</v>
       </c>
-      <c r="E22" s="7">
+      <c r="G22" s="7">
         <v>1334.4</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="I22" s="3"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" t="s">
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B23">
@@ -3116,19 +3156,19 @@
       <c r="C23">
         <v>68</v>
       </c>
-      <c r="D23" s="3">
+      <c r="F23" s="3">
         <f>B23+C23</f>
         <v>79</v>
       </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="I23" s="3"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" t="s">
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B24">
@@ -3137,19 +3177,19 @@
       <c r="C24">
         <v>62</v>
       </c>
-      <c r="D24" s="3">
+      <c r="F24" s="3">
         <f>B24+C24</f>
         <v>70</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="I24" s="3"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" t="s">
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B25">
@@ -3158,39 +3198,39 @@
       <c r="C25">
         <v>63</v>
       </c>
-      <c r="D25" s="3">
+      <c r="F25" s="3">
         <f>B25+C25</f>
         <v>68</v>
       </c>
-      <c r="E25" s="7">
+      <c r="G25" s="7">
         <v>1324</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="I25" s="3"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" t="s">
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B26">
         <v>5</v>
       </c>
-      <c r="E26" s="7">
+      <c r="G26" s="7">
         <v>1334</v>
       </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="I26" s="3"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" t="s">
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B27">
@@ -3199,19 +3239,19 @@
       <c r="C27">
         <v>65</v>
       </c>
-      <c r="D27" s="3">
-        <f t="shared" ref="D27:D28" si="0">B27+C27</f>
+      <c r="F27" s="3">
+        <f t="shared" ref="F27:F28" si="0">B27+C27</f>
         <v>74</v>
       </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="I27" s="3"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" t="s">
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B28">
@@ -3220,33 +3260,33 @@
       <c r="C28">
         <v>67</v>
       </c>
-      <c r="D28" s="3">
+      <c r="F28" s="3">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="I28" s="3"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" t="s">
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B29">
         <v>9</v>
       </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="I29" s="3"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" t="s">
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B30">
@@ -3255,19 +3295,19 @@
       <c r="C30">
         <v>62</v>
       </c>
-      <c r="D30" s="3">
-        <f t="shared" ref="D30:D45" si="1">B30+C30</f>
-        <v>70</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="F30" s="3">
+        <f t="shared" ref="F30:F45" si="1">B30+C30</f>
+        <v>70</v>
+      </c>
+      <c r="I30" s="3"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" t="s">
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B31">
@@ -3276,19 +3316,19 @@
       <c r="C31">
         <v>62</v>
       </c>
-      <c r="D31" s="3">
+      <c r="F31" s="3">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="I31" s="3"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" t="s">
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B32">
@@ -3297,19 +3337,19 @@
       <c r="C32">
         <v>64</v>
       </c>
-      <c r="D32" s="3">
+      <c r="F32" s="3">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="I32" s="3"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" t="s">
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B33">
@@ -3318,19 +3358,19 @@
       <c r="C33">
         <v>60</v>
       </c>
-      <c r="D33" s="3">
+      <c r="F33" s="3">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="I33" s="3"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" t="s">
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B34">
@@ -3339,22 +3379,22 @@
       <c r="C34">
         <v>59</v>
       </c>
-      <c r="D34" s="3">
+      <c r="F34" s="3">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="E34" s="7">
+      <c r="G34" s="7">
         <v>1404</v>
       </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="I34" s="3"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" t="s">
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B35">
@@ -3363,23 +3403,23 @@
       <c r="C35">
         <v>57</v>
       </c>
-      <c r="D35" s="3">
+      <c r="F35" s="3">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="E35" s="7">
+      <c r="G35" s="7">
         <v>1308</v>
       </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="3"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" t="s">
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B36">
@@ -3388,23 +3428,23 @@
       <c r="C36">
         <v>58</v>
       </c>
-      <c r="D36" s="3">
+      <c r="F36" s="3">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="E36" s="7">
+      <c r="G36" s="7">
         <v>1366</v>
       </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="3"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" t="s">
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B37">
@@ -3413,22 +3453,22 @@
       <c r="C37">
         <v>56</v>
       </c>
-      <c r="D37" s="3">
+      <c r="F37" s="3">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="E37" s="7">
+      <c r="G37" s="7">
         <v>1391</v>
       </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="I37" s="3"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" t="s">
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B38">
@@ -3437,19 +3477,19 @@
       <c r="C38">
         <v>55</v>
       </c>
-      <c r="D38" s="3">
+      <c r="F38" s="3">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+      <c r="I38" s="3"/>
       <c r="J38" s="1"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" t="s">
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B39">
@@ -3458,23 +3498,23 @@
       <c r="C39">
         <v>58</v>
       </c>
-      <c r="D39" s="3">
+      <c r="F39" s="3">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="E39" s="7">
+      <c r="G39" s="7">
         <v>1368</v>
       </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="3"/>
       <c r="J39" s="1"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" t="s">
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B40">
@@ -3483,19 +3523,19 @@
       <c r="C40">
         <v>58</v>
       </c>
-      <c r="D40" s="3">
+      <c r="F40" s="3">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
+      <c r="I40" s="3"/>
       <c r="J40" s="1"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" t="s">
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B41">
@@ -3504,19 +3544,19 @@
       <c r="C41">
         <v>56</v>
       </c>
-      <c r="D41" s="3">
+      <c r="F41" s="3">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="I41" s="3"/>
       <c r="J41" s="1"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" t="s">
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B42">
@@ -3525,19 +3565,19 @@
       <c r="C42">
         <v>56</v>
       </c>
-      <c r="D42" s="3">
+      <c r="F42" s="3">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+      <c r="I42" s="3"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" t="s">
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B43">
@@ -3546,19 +3586,19 @@
       <c r="C43">
         <v>56</v>
       </c>
-      <c r="D43" s="3">
+      <c r="F43" s="3">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
+      <c r="I43" s="3"/>
       <c r="J43" s="1"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" t="s">
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B44">
@@ -3567,19 +3607,19 @@
       <c r="C44">
         <v>64</v>
       </c>
-      <c r="D44" s="3">
+      <c r="F44" s="3">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
+      <c r="I44" s="3"/>
       <c r="J44" s="1"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" t="s">
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B45">
@@ -3588,23 +3628,23 @@
       <c r="C45">
         <v>57</v>
       </c>
-      <c r="D45" s="3">
+      <c r="F45" s="3">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="E45" s="7">
+      <c r="G45" s="7">
         <v>1394</v>
       </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="3"/>
       <c r="J45" s="1"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" t="s">
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B46">
@@ -3613,19 +3653,19 @@
       <c r="C46">
         <v>57</v>
       </c>
-      <c r="D46" s="3">
-        <f>B46+C46</f>
+      <c r="F46" s="3">
+        <f t="shared" ref="F46:F59" si="2">B46+C46</f>
         <v>61</v>
       </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
+      <c r="I46" s="3"/>
       <c r="J46" s="1"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" t="s">
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B47">
@@ -3634,19 +3674,19 @@
       <c r="C47">
         <v>66</v>
       </c>
-      <c r="D47" s="3">
-        <f>B47+C47</f>
+      <c r="F47" s="3">
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="G47" s="3"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
+      <c r="I47" s="3"/>
       <c r="J47" s="1"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="3" t="s">
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
         <v>236</v>
       </c>
       <c r="B48">
@@ -3655,17 +3695,17 @@
       <c r="C48">
         <v>58</v>
       </c>
-      <c r="D48" s="3">
-        <f>B48+C48</f>
+      <c r="F48" s="3">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="E48" s="7">
-        <v>1404</v>
-      </c>
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" t="s">
+      <c r="G48" s="7">
+        <v>1402</v>
+      </c>
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
         <v>237</v>
       </c>
       <c r="B49">
@@ -3674,16 +3714,19 @@
       <c r="C49">
         <v>58</v>
       </c>
-      <c r="D49" s="3">
-        <f>B49+C49</f>
+      <c r="F49" s="3">
+        <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" s="7">
+        <v>1395</v>
+      </c>
+      <c r="H49" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
         <v>238</v>
       </c>
       <c r="B50">
@@ -3692,16 +3735,19 @@
       <c r="C50">
         <v>49</v>
       </c>
-      <c r="D50" s="3">
-        <f>B50+C50</f>
+      <c r="F50" s="3">
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="G50" s="7">
+        <v>1361</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" t="s">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="8" t="s">
         <v>239</v>
       </c>
       <c r="B51">
@@ -3710,13 +3756,13 @@
       <c r="C51">
         <v>48</v>
       </c>
-      <c r="D51" s="3">
-        <f>B51+C51</f>
+      <c r="F51" s="3">
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="8" t="s">
         <v>240</v>
       </c>
       <c r="B52">
@@ -3725,13 +3771,13 @@
       <c r="C52">
         <v>48</v>
       </c>
-      <c r="D52" s="3">
-        <f>B52+C52</f>
+      <c r="F52" s="3">
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="8" t="s">
         <v>241</v>
       </c>
       <c r="B53">
@@ -3740,16 +3786,16 @@
       <c r="C53">
         <v>55</v>
       </c>
-      <c r="D53" s="3">
-        <f>B53+C53</f>
+      <c r="F53" s="3">
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
-      <c r="F53" t="s">
+      <c r="H53" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="8" t="s">
         <v>242</v>
       </c>
       <c r="B54">
@@ -3758,13 +3804,13 @@
       <c r="C54">
         <v>54</v>
       </c>
-      <c r="D54" s="3">
-        <f>B54+C54</f>
+      <c r="F54" s="3">
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="8" t="s">
         <v>243</v>
       </c>
       <c r="B55">
@@ -3773,23 +3819,757 @@
       <c r="C55">
         <v>47</v>
       </c>
-      <c r="D55" s="3">
-        <f>B55+C55</f>
+      <c r="E55" s="3">
+        <v>63</v>
+      </c>
+      <c r="F55" s="3">
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" s="7">
+        <v>1371</v>
+      </c>
+      <c r="H55" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" t="s">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="8" t="s">
         <v>244</v>
       </c>
       <c r="B56">
         <v>3</v>
       </c>
-      <c r="F56" t="s">
+      <c r="C56">
+        <v>54</v>
+      </c>
+      <c r="D56" s="3">
+        <v>60</v>
+      </c>
+      <c r="F56" s="3">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="G56" s="7">
+        <f>(1407+1386)/2</f>
+        <v>1396.5</v>
+      </c>
+      <c r="H56" t="s">
         <v>235</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="8">
+        <v>445</v>
+      </c>
+      <c r="B57">
+        <v>6</v>
+      </c>
+      <c r="C57" s="3">
+        <v>54</v>
+      </c>
+      <c r="D57" s="3">
+        <v>60</v>
+      </c>
+      <c r="F57" s="3">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="G57" s="7">
+        <f>(1392+1428)/2</f>
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="8">
+        <v>446</v>
+      </c>
+      <c r="B58">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <v>55</v>
+      </c>
+      <c r="D58" s="3">
+        <v>60</v>
+      </c>
+      <c r="F58" s="3">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="G58" s="7">
+        <f>(1408+1360)/2</f>
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="8">
+        <v>447</v>
+      </c>
+      <c r="B59">
+        <v>10</v>
+      </c>
+      <c r="C59">
+        <v>64</v>
+      </c>
+      <c r="D59" s="3">
+        <v>80</v>
+      </c>
+      <c r="F59" s="3">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="G59" s="7">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B60" s="3">
+        <v>12</v>
+      </c>
+      <c r="G60" s="7"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="8">
+        <f>A59+1</f>
+        <v>448</v>
+      </c>
+      <c r="B61">
+        <v>10</v>
+      </c>
+      <c r="C61">
+        <v>64</v>
+      </c>
+      <c r="D61" s="3">
+        <v>77</v>
+      </c>
+      <c r="E61" s="3">
+        <v>74</v>
+      </c>
+      <c r="F61" s="3">
+        <f>SUM(B61:E61)</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="8">
+        <f>A61+1</f>
+        <v>449</v>
+      </c>
+      <c r="B62">
+        <v>9</v>
+      </c>
+      <c r="C62">
+        <v>57</v>
+      </c>
+      <c r="D62" s="3">
+        <v>64</v>
+      </c>
+      <c r="E62" s="3">
+        <v>61</v>
+      </c>
+      <c r="F62" s="3">
+        <f t="shared" ref="F62:F65" si="3">SUM(B62:E62)</f>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="8">
+        <f>A62+1</f>
+        <v>450</v>
+      </c>
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="C63">
+        <v>51</v>
+      </c>
+      <c r="D63" s="3">
+        <v>61</v>
+      </c>
+      <c r="E63" s="3">
+        <v>66</v>
+      </c>
+      <c r="F63" s="3">
+        <f t="shared" si="3"/>
+        <v>183</v>
+      </c>
+      <c r="G63" s="7">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="8">
+        <f>A63+1</f>
+        <v>451</v>
+      </c>
+      <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <v>53</v>
+      </c>
+      <c r="D64" s="3">
+        <v>58</v>
+      </c>
+      <c r="E64" s="3">
+        <v>58</v>
+      </c>
+      <c r="F64" s="3">
+        <f t="shared" si="3"/>
+        <v>173</v>
+      </c>
+      <c r="G64" s="7">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B65" s="3">
+        <v>2</v>
+      </c>
+      <c r="C65" s="3">
+        <v>49</v>
+      </c>
+      <c r="D65" s="3">
+        <v>64</v>
+      </c>
+      <c r="E65" s="3">
+        <v>61</v>
+      </c>
+      <c r="F65" s="3">
+        <f t="shared" si="3"/>
+        <v>176</v>
+      </c>
+      <c r="G65" s="7">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="8">
+        <f>A64+1</f>
+        <v>452</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>51</v>
+      </c>
+      <c r="E66" s="3">
+        <v>54</v>
+      </c>
+      <c r="G66" s="7">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="8">
+        <f>A66+1</f>
+        <v>453</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>51</v>
+      </c>
+      <c r="D67" s="3">
+        <v>57</v>
+      </c>
+      <c r="E67" s="3">
+        <v>53</v>
+      </c>
+      <c r="F67" s="3">
+        <f t="shared" ref="F67:F87" si="4">SUM(B67:E67)</f>
+        <v>162</v>
+      </c>
+      <c r="G67" s="7">
+        <f>(1397+1391)/2</f>
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="8">
+        <f>A67+1</f>
+        <v>454</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>50</v>
+      </c>
+      <c r="D68" s="3">
+        <v>56</v>
+      </c>
+      <c r="E68" s="3">
+        <v>54</v>
+      </c>
+      <c r="F68" s="3">
+        <f t="shared" si="4"/>
+        <v>161</v>
+      </c>
+      <c r="G68" s="7">
+        <f>(1418+1355)/2</f>
+        <v>1386.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="8">
+        <f>A68+1</f>
+        <v>455</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>54</v>
+      </c>
+      <c r="D69" s="3">
+        <v>60</v>
+      </c>
+      <c r="E69" s="3">
+        <v>54</v>
+      </c>
+      <c r="F69" s="3">
+        <f t="shared" si="4"/>
+        <v>169</v>
+      </c>
+      <c r="G69" s="7">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="8">
+        <f>A69+1</f>
+        <v>456</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>54</v>
+      </c>
+      <c r="D70" s="3">
+        <v>55</v>
+      </c>
+      <c r="E70" s="3">
+        <v>61</v>
+      </c>
+      <c r="F70" s="3">
+        <f t="shared" si="4"/>
+        <v>171</v>
+      </c>
+      <c r="G70" s="7">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="8">
+        <f>A70+1</f>
+        <v>457</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>62</v>
+      </c>
+      <c r="D71" s="3">
+        <v>75</v>
+      </c>
+      <c r="E71" s="3">
+        <v>71</v>
+      </c>
+      <c r="F71" s="3">
+        <f t="shared" si="4"/>
+        <v>209</v>
+      </c>
+      <c r="G71" s="7">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="8">
+        <f>A71+1</f>
+        <v>458</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>52</v>
+      </c>
+      <c r="D72" s="3">
+        <v>58</v>
+      </c>
+      <c r="E72" s="3">
+        <v>61</v>
+      </c>
+      <c r="F72" s="3">
+        <f t="shared" si="4"/>
+        <v>172</v>
+      </c>
+      <c r="G72" s="7">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="8">
+        <f>A72+1</f>
+        <v>459</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73">
+        <v>50</v>
+      </c>
+      <c r="D73" s="3">
+        <v>55</v>
+      </c>
+      <c r="E73" s="3">
+        <v>60</v>
+      </c>
+      <c r="F73" s="3">
+        <f t="shared" si="4"/>
+        <v>167</v>
+      </c>
+      <c r="G73" s="7">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="8">
+        <f>A73+1</f>
+        <v>460</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+      <c r="C74">
+        <v>47</v>
+      </c>
+      <c r="D74" s="3">
+        <v>49</v>
+      </c>
+      <c r="E74" s="3">
+        <v>59</v>
+      </c>
+      <c r="F74" s="3">
+        <f t="shared" si="4"/>
+        <v>158</v>
+      </c>
+      <c r="G74" s="7">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="8">
+        <f>A74+1</f>
+        <v>461</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
+      </c>
+      <c r="C75">
+        <v>47</v>
+      </c>
+      <c r="D75" s="3">
+        <v>49</v>
+      </c>
+      <c r="E75" s="3">
+        <v>59</v>
+      </c>
+      <c r="F75" s="3">
+        <f t="shared" si="4"/>
+        <v>158</v>
+      </c>
+      <c r="G75" s="7">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="8">
+        <f>A75+1</f>
+        <v>462</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <v>46</v>
+      </c>
+      <c r="D76" s="3">
+        <v>56</v>
+      </c>
+      <c r="E76" s="3">
+        <v>57</v>
+      </c>
+      <c r="F76" s="3">
+        <f t="shared" si="4"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="8">
+        <f>A76+1</f>
+        <v>463</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>45</v>
+      </c>
+      <c r="D77" s="3">
+        <v>61</v>
+      </c>
+      <c r="E77" s="3">
+        <v>54</v>
+      </c>
+      <c r="F77" s="3">
+        <f t="shared" si="4"/>
+        <v>161</v>
+      </c>
+      <c r="G77" s="7">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="8">
+        <f>A77+1</f>
+        <v>464</v>
+      </c>
+      <c r="B78">
+        <v>6</v>
+      </c>
+      <c r="C78">
+        <v>55</v>
+      </c>
+      <c r="D78" s="3">
+        <v>55</v>
+      </c>
+      <c r="E78" s="3">
+        <v>60</v>
+      </c>
+      <c r="F78" s="3">
+        <f t="shared" si="4"/>
+        <v>176</v>
+      </c>
+      <c r="G78" s="7">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="8">
+        <f>A78+1</f>
+        <v>465</v>
+      </c>
+      <c r="B79">
+        <v>5</v>
+      </c>
+      <c r="C79">
+        <v>54</v>
+      </c>
+      <c r="D79" s="3">
+        <v>58</v>
+      </c>
+      <c r="E79" s="3">
+        <v>61</v>
+      </c>
+      <c r="F79" s="3">
+        <f t="shared" si="4"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80">
+        <v>48</v>
+      </c>
+      <c r="D80" s="3">
+        <v>60</v>
+      </c>
+      <c r="E80" s="3">
+        <v>58</v>
+      </c>
+      <c r="F80" s="3">
+        <f t="shared" si="4"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="8">
+        <v>466</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81">
+        <v>54</v>
+      </c>
+      <c r="D81" s="3">
+        <v>51</v>
+      </c>
+      <c r="E81" s="3">
+        <v>58</v>
+      </c>
+      <c r="F81" s="3">
+        <f t="shared" si="4"/>
+        <v>166</v>
+      </c>
+      <c r="G81" s="7">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B82" s="3">
+        <v>4</v>
+      </c>
+      <c r="C82" s="3">
+        <v>45</v>
+      </c>
+      <c r="D82" s="3">
+        <v>53</v>
+      </c>
+      <c r="E82" s="3">
+        <v>55</v>
+      </c>
+      <c r="F82" s="3">
+        <f t="shared" si="4"/>
+        <v>157</v>
+      </c>
+      <c r="G82" s="7">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="8">
+        <v>467</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
+      <c r="C83">
+        <v>49</v>
+      </c>
+      <c r="D83" s="3">
+        <v>53</v>
+      </c>
+      <c r="E83" s="3">
+        <v>62</v>
+      </c>
+      <c r="F83" s="3">
+        <f t="shared" si="4"/>
+        <v>167</v>
+      </c>
+      <c r="G83" s="7">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B84">
+        <v>5</v>
+      </c>
+      <c r="C84">
+        <v>47</v>
+      </c>
+      <c r="D84" s="3">
+        <v>53</v>
+      </c>
+      <c r="E84" s="3">
+        <v>56</v>
+      </c>
+      <c r="F84" s="3">
+        <f t="shared" si="4"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="8">
+        <v>468</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85">
+        <v>46</v>
+      </c>
+      <c r="D85" s="3">
+        <v>54</v>
+      </c>
+      <c r="E85" s="3">
+        <v>61</v>
+      </c>
+      <c r="F85" s="3">
+        <f t="shared" si="4"/>
+        <v>163</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="8">
+        <v>469</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86">
+        <v>48</v>
+      </c>
+      <c r="D86" s="3">
+        <v>55</v>
+      </c>
+      <c r="E86" s="3">
+        <v>58</v>
+      </c>
+      <c r="F86" s="3">
+        <f t="shared" si="4"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="8">
+        <v>470</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87">
+        <v>48</v>
+      </c>
+      <c r="D87" s="3">
+        <v>54</v>
+      </c>
+      <c r="E87" s="3">
+        <v>56</v>
+      </c>
+      <c r="F87" s="3">
+        <f t="shared" si="4"/>
+        <v>160</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -3806,13 +4586,13 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.15625" customWidth="1"/>
-    <col min="2" max="2" width="13.68359375" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>57</v>
       </c>
@@ -3833,7 +4613,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>63</v>
       </c>
@@ -3854,7 +4634,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>69</v>
       </c>
@@ -3877,7 +4657,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>72</v>
       </c>
@@ -3900,7 +4680,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>73</v>
       </c>
@@ -3923,7 +4703,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>74</v>
       </c>
@@ -3946,7 +4726,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>75</v>
       </c>
@@ -3969,7 +4749,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>76</v>
       </c>
@@ -3992,7 +4772,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>77</v>
       </c>
@@ -4015,7 +4795,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>78</v>
       </c>
@@ -4038,7 +4818,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>79</v>
       </c>
@@ -4061,7 +4841,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>80</v>
       </c>
@@ -4084,7 +4864,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>81</v>
       </c>
@@ -4107,7 +4887,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>82</v>
       </c>
@@ -4130,7 +4910,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>83</v>
       </c>
@@ -4153,7 +4933,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>84</v>
       </c>
@@ -4176,7 +4956,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>85</v>
       </c>
@@ -4216,7 +4996,7 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>86</v>
       </c>
@@ -4256,7 +5036,7 @@
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>87</v>
       </c>
@@ -4296,7 +5076,7 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>88</v>
       </c>
@@ -4336,7 +5116,7 @@
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>89</v>
       </c>
@@ -4376,7 +5156,7 @@
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>90</v>
       </c>
@@ -4416,7 +5196,7 @@
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>91</v>
       </c>
@@ -4456,7 +5236,7 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>92</v>
       </c>
@@ -4502,7 +5282,7 @@
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>97</v>
       </c>
@@ -4542,7 +5322,7 @@
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>98</v>
       </c>
@@ -4582,7 +5362,7 @@
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>99</v>
       </c>
@@ -4656,7 +5436,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>97</v>
       </c>
@@ -4708,7 +5488,7 @@
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>99</v>
       </c>
@@ -4762,7 +5542,7 @@
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>98</v>
       </c>
@@ -4830,7 +5610,7 @@
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>140</v>
       </c>
@@ -4874,7 +5654,7 @@
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>92</v>
       </c>
@@ -4932,7 +5712,7 @@
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>153</v>
       </c>
@@ -4988,7 +5768,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>162</v>
       </c>
@@ -5038,7 +5818,7 @@
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>170</v>
       </c>
@@ -5088,7 +5868,7 @@
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>175</v>
       </c>
@@ -5132,7 +5912,7 @@
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>176</v>
       </c>
@@ -5176,7 +5956,7 @@
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>183</v>
       </c>
@@ -5232,7 +6012,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>188</v>
       </c>
@@ -5270,7 +6050,7 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>191</v>
       </c>
@@ -5314,7 +6094,7 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>195</v>
       </c>
@@ -5344,7 +6124,7 @@
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>197</v>
       </c>
@@ -5400,7 +6180,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>205</v>
       </c>
@@ -5446,7 +6226,7 @@
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>208</v>
       </c>
@@ -5498,7 +6278,7 @@
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>218</v>
       </c>
@@ -5550,7 +6330,7 @@
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>218</v>
       </c>
@@ -5586,7 +6366,7 @@
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>218</v>
       </c>
@@ -5622,7 +6402,7 @@
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>218</v>
       </c>
@@ -5666,7 +6446,7 @@
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>129</v>
       </c>
@@ -5716,32 +6496,32 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>56</v>
       </c>

--- a/results2/results.xlsx
+++ b/results2/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\luxai\simple\results2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B36342-F1A0-4BF6-8B9C-219BC0F35787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7251DB-469D-42AA-9943-09920F85B0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="2232" windowWidth="9192" windowHeight="8724" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12060" yWindow="300" windowWidth="9192" windowHeight="8724" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="light" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="253">
   <si>
     <t>log:C:/git/luxai/light/main</t>
   </si>
@@ -794,9 +794,6 @@
   </si>
   <si>
     <t>467b</t>
-  </si>
-  <si>
-    <t>XXX</t>
   </si>
 </sst>
 </file>
@@ -2765,11 +2762,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7DEE342-DBC6-45F5-B8C3-642DC33E53FC}">
-  <dimension ref="A1:N87"/>
+  <dimension ref="A1:N90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G88" sqref="G88"/>
+      <selection pane="bottomLeft" activeCell="F78" sqref="F78:F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4086,7 +4083,7 @@
         <v>53</v>
       </c>
       <c r="F67" s="3">
-        <f t="shared" ref="F67:F87" si="4">SUM(B67:E67)</f>
+        <f t="shared" ref="F67:F90" si="4">SUM(B67:E67)</f>
         <v>162</v>
       </c>
       <c r="G67" s="7">
@@ -4523,8 +4520,8 @@
         <f t="shared" si="4"/>
         <v>163</v>
       </c>
-      <c r="G85" s="7" t="s">
-        <v>253</v>
+      <c r="G85" s="7">
+        <v>1326</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -4568,8 +4565,82 @@
         <f t="shared" si="4"/>
         <v>160</v>
       </c>
-      <c r="G87" s="7" t="s">
-        <v>253</v>
+      <c r="G87" s="7">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="8">
+        <v>471</v>
+      </c>
+      <c r="B88">
+        <v>5</v>
+      </c>
+      <c r="C88">
+        <v>48</v>
+      </c>
+      <c r="D88" s="3">
+        <v>51</v>
+      </c>
+      <c r="E88" s="3">
+        <v>54</v>
+      </c>
+      <c r="F88" s="3">
+        <f t="shared" si="4"/>
+        <v>158</v>
+      </c>
+      <c r="G88" s="7">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="8">
+        <f t="shared" ref="A89:A90" si="5">A88+1</f>
+        <v>472</v>
+      </c>
+      <c r="B89">
+        <v>5</v>
+      </c>
+      <c r="C89">
+        <v>50</v>
+      </c>
+      <c r="D89" s="3">
+        <v>53</v>
+      </c>
+      <c r="E89" s="3">
+        <v>56</v>
+      </c>
+      <c r="F89" s="3">
+        <f t="shared" si="4"/>
+        <v>164</v>
+      </c>
+      <c r="G89" s="7">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="8">
+        <f t="shared" si="5"/>
+        <v>473</v>
+      </c>
+      <c r="B90">
+        <v>5</v>
+      </c>
+      <c r="C90">
+        <v>50</v>
+      </c>
+      <c r="D90" s="3">
+        <v>53</v>
+      </c>
+      <c r="E90" s="3">
+        <v>55</v>
+      </c>
+      <c r="F90" s="3">
+        <f t="shared" si="4"/>
+        <v>163</v>
+      </c>
+      <c r="G90" s="7">
+        <v>1374</v>
       </c>
     </row>
   </sheetData>

--- a/results2/results.xlsx
+++ b/results2/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\luxai\simple\results2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7251DB-469D-42AA-9943-09920F85B0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C3E22D-7B25-459A-8FC2-0B20F95ED7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12060" yWindow="300" windowWidth="9192" windowHeight="8724" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12804" yWindow="492" windowWidth="7956" windowHeight="8724" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="light" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="256">
   <si>
     <t>log:C:/git/luxai/light/main</t>
   </si>
@@ -736,9 +736,6 @@
     <t>researched</t>
   </si>
   <si>
-    <t>subm</t>
-  </si>
-  <si>
     <t>rule403</t>
   </si>
   <si>
@@ -794,6 +791,18 @@
   </si>
   <si>
     <t>467b</t>
+  </si>
+  <si>
+    <t>488d</t>
+  </si>
+  <si>
+    <t>488b</t>
+  </si>
+  <si>
+    <t>488c</t>
+  </si>
+  <si>
+    <t>488bc</t>
   </si>
 </sst>
 </file>
@@ -2762,17 +2771,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7DEE342-DBC6-45F5-B8C3-642DC33E53FC}">
-  <dimension ref="A1:N90"/>
+  <dimension ref="A1:N112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F78" sqref="F78:F90"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H110" sqref="H110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="8"/>
-    <col min="4" max="6" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="7.21875" style="8" customWidth="1"/>
+    <col min="2" max="3" width="6" customWidth="1"/>
+    <col min="4" max="6" width="6" style="3" customWidth="1"/>
     <col min="7" max="7" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
@@ -2784,16 +2794,16 @@
         <v>31</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>248</v>
-      </c>
       <c r="G1" s="7" t="s">
-        <v>233</v>
+        <v>173</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -2908,7 +2918,7 @@
     </row>
     <row r="9" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G9" s="7">
         <v>1338</v>
@@ -3684,7 +3694,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -3703,7 +3713,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B49">
         <v>4</v>
@@ -3719,12 +3729,12 @@
         <v>1395</v>
       </c>
       <c r="H49" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B50">
         <v>4</v>
@@ -3740,12 +3750,12 @@
         <v>1361</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B51">
         <v>4</v>
@@ -3760,7 +3770,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -3775,7 +3785,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -3788,12 +3798,12 @@
         <v>58</v>
       </c>
       <c r="H53" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B54">
         <v>3</v>
@@ -3808,7 +3818,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B55">
         <v>3</v>
@@ -3827,12 +3837,12 @@
         <v>1371</v>
       </c>
       <c r="H55" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -3852,7 +3862,7 @@
         <v>1396.5</v>
       </c>
       <c r="H56" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -3922,7 +3932,7 @@
     </row>
     <row r="60" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B60" s="3">
         <v>12</v>
@@ -4025,7 +4035,7 @@
     </row>
     <row r="65" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B65" s="3">
         <v>2</v>
@@ -4083,7 +4093,7 @@
         <v>53</v>
       </c>
       <c r="F67" s="3">
-        <f t="shared" ref="F67:F90" si="4">SUM(B67:E67)</f>
+        <f t="shared" ref="F67:F112" si="4">SUM(B67:E67)</f>
         <v>162</v>
       </c>
       <c r="G67" s="7">
@@ -4388,7 +4398,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B80">
         <v>2</v>
@@ -4433,7 +4443,7 @@
     </row>
     <row r="82" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B82" s="3">
         <v>4</v>
@@ -4481,7 +4491,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B84">
         <v>5</v>
@@ -4521,7 +4531,7 @@
         <v>163</v>
       </c>
       <c r="G85" s="7">
-        <v>1326</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -4566,7 +4576,7 @@
         <v>160</v>
       </c>
       <c r="G87" s="7">
-        <v>1363</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -4590,7 +4600,7 @@
         <v>158</v>
       </c>
       <c r="G88" s="7">
-        <v>1315</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -4615,7 +4625,7 @@
         <v>164</v>
       </c>
       <c r="G89" s="7">
-        <v>1325</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -4640,7 +4650,503 @@
         <v>163</v>
       </c>
       <c r="G90" s="7">
-        <v>1374</v>
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="8">
+        <v>474</v>
+      </c>
+      <c r="B91">
+        <v>6</v>
+      </c>
+      <c r="C91">
+        <v>48</v>
+      </c>
+      <c r="D91" s="3">
+        <v>51</v>
+      </c>
+      <c r="E91" s="3">
+        <v>53</v>
+      </c>
+      <c r="F91" s="3">
+        <f t="shared" si="4"/>
+        <v>158</v>
+      </c>
+      <c r="G91" s="7">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="8">
+        <v>475</v>
+      </c>
+      <c r="B92">
+        <v>7</v>
+      </c>
+      <c r="C92">
+        <v>46</v>
+      </c>
+      <c r="D92" s="3">
+        <v>57</v>
+      </c>
+      <c r="E92" s="3">
+        <v>52</v>
+      </c>
+      <c r="F92" s="3">
+        <f t="shared" si="4"/>
+        <v>162</v>
+      </c>
+      <c r="G92" s="7">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="8">
+        <v>476</v>
+      </c>
+      <c r="B93">
+        <v>5</v>
+      </c>
+      <c r="C93">
+        <v>48</v>
+      </c>
+      <c r="D93" s="3">
+        <v>59</v>
+      </c>
+      <c r="E93" s="3">
+        <v>67</v>
+      </c>
+      <c r="F93" s="3">
+        <f t="shared" si="4"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="8">
+        <v>477</v>
+      </c>
+      <c r="B94">
+        <v>5</v>
+      </c>
+      <c r="C94">
+        <v>44</v>
+      </c>
+      <c r="D94" s="3">
+        <v>55</v>
+      </c>
+      <c r="E94" s="3">
+        <v>65</v>
+      </c>
+      <c r="F94" s="3">
+        <f t="shared" si="4"/>
+        <v>169</v>
+      </c>
+      <c r="G94" s="7">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="8">
+        <v>478</v>
+      </c>
+      <c r="B95">
+        <v>5</v>
+      </c>
+      <c r="C95">
+        <v>47</v>
+      </c>
+      <c r="D95" s="3">
+        <v>54</v>
+      </c>
+      <c r="E95" s="3">
+        <v>58</v>
+      </c>
+      <c r="F95" s="3">
+        <f t="shared" si="4"/>
+        <v>164</v>
+      </c>
+      <c r="G95" s="7">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="8">
+        <v>479</v>
+      </c>
+      <c r="B96">
+        <v>4</v>
+      </c>
+      <c r="C96">
+        <v>47</v>
+      </c>
+      <c r="D96" s="3">
+        <v>54</v>
+      </c>
+      <c r="E96" s="3">
+        <v>58</v>
+      </c>
+      <c r="F96" s="3">
+        <f t="shared" si="4"/>
+        <v>163</v>
+      </c>
+      <c r="G96" s="7">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="8">
+        <v>480</v>
+      </c>
+      <c r="B97">
+        <v>4</v>
+      </c>
+      <c r="C97">
+        <v>50</v>
+      </c>
+      <c r="D97" s="3">
+        <v>50</v>
+      </c>
+      <c r="E97" s="3">
+        <v>56</v>
+      </c>
+      <c r="F97" s="3">
+        <f t="shared" si="4"/>
+        <v>160</v>
+      </c>
+      <c r="G97" s="7">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="8">
+        <v>481</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="C98">
+        <v>49</v>
+      </c>
+      <c r="D98" s="3">
+        <v>51</v>
+      </c>
+      <c r="E98" s="3">
+        <v>54</v>
+      </c>
+      <c r="F98" s="3">
+        <f t="shared" si="4"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="8">
+        <v>482</v>
+      </c>
+      <c r="B99">
+        <v>4</v>
+      </c>
+      <c r="C99">
+        <v>55</v>
+      </c>
+      <c r="D99" s="3">
+        <v>52</v>
+      </c>
+      <c r="E99" s="3">
+        <v>53</v>
+      </c>
+      <c r="F99" s="3">
+        <f t="shared" si="4"/>
+        <v>164</v>
+      </c>
+      <c r="G99" s="7">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="8">
+        <v>483</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="C100">
+        <v>44</v>
+      </c>
+      <c r="D100" s="3">
+        <v>58</v>
+      </c>
+      <c r="E100" s="3">
+        <v>54</v>
+      </c>
+      <c r="F100" s="3">
+        <f t="shared" si="4"/>
+        <v>159</v>
+      </c>
+      <c r="G100" s="7">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="8">
+        <v>484</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+      <c r="C101">
+        <v>40</v>
+      </c>
+      <c r="D101" s="3">
+        <v>50</v>
+      </c>
+      <c r="E101" s="3">
+        <v>52</v>
+      </c>
+      <c r="F101" s="3">
+        <f t="shared" si="4"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="8">
+        <v>485</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
+      </c>
+      <c r="C102">
+        <v>40</v>
+      </c>
+      <c r="D102" s="3">
+        <v>50</v>
+      </c>
+      <c r="E102" s="3">
+        <v>56</v>
+      </c>
+      <c r="F102" s="3">
+        <f t="shared" si="4"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="8">
+        <v>486</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+      <c r="C103">
+        <v>41</v>
+      </c>
+      <c r="D103" s="3">
+        <v>49</v>
+      </c>
+      <c r="E103" s="3">
+        <v>60</v>
+      </c>
+      <c r="F103" s="3">
+        <f t="shared" si="4"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="8">
+        <v>487</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+      <c r="C104">
+        <v>46</v>
+      </c>
+      <c r="D104" s="3">
+        <v>49</v>
+      </c>
+      <c r="E104" s="3">
+        <v>61</v>
+      </c>
+      <c r="F104" s="3">
+        <f t="shared" si="4"/>
+        <v>159</v>
+      </c>
+      <c r="G104" s="7">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="8">
+        <v>488</v>
+      </c>
+      <c r="B105">
+        <v>2</v>
+      </c>
+      <c r="C105">
+        <v>41</v>
+      </c>
+      <c r="D105" s="3">
+        <v>51</v>
+      </c>
+      <c r="E105" s="3">
+        <v>58</v>
+      </c>
+      <c r="F105" s="3">
+        <f t="shared" si="4"/>
+        <v>152</v>
+      </c>
+      <c r="G105" s="7">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B106" s="3">
+        <v>3</v>
+      </c>
+      <c r="C106" s="3">
+        <v>43</v>
+      </c>
+      <c r="D106" s="3">
+        <v>54</v>
+      </c>
+      <c r="E106" s="3">
+        <v>58</v>
+      </c>
+      <c r="F106" s="3">
+        <f t="shared" si="4"/>
+        <v>158</v>
+      </c>
+      <c r="G106" s="7"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B107">
+        <v>2</v>
+      </c>
+      <c r="C107">
+        <v>41</v>
+      </c>
+      <c r="D107" s="3">
+        <v>52</v>
+      </c>
+      <c r="E107" s="3">
+        <v>60</v>
+      </c>
+      <c r="F107" s="3">
+        <f t="shared" si="4"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B108">
+        <v>2</v>
+      </c>
+      <c r="C108">
+        <v>52</v>
+      </c>
+      <c r="D108" s="3">
+        <v>48</v>
+      </c>
+      <c r="E108" s="3">
+        <v>57</v>
+      </c>
+      <c r="F108" s="3">
+        <f t="shared" si="4"/>
+        <v>159</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B109">
+        <v>4</v>
+      </c>
+      <c r="C109">
+        <v>43</v>
+      </c>
+      <c r="D109" s="3">
+        <v>55</v>
+      </c>
+      <c r="E109" s="3">
+        <v>59</v>
+      </c>
+      <c r="F109" s="3">
+        <f t="shared" si="4"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="8">
+        <v>489</v>
+      </c>
+      <c r="B110">
+        <v>2</v>
+      </c>
+      <c r="C110">
+        <v>44</v>
+      </c>
+      <c r="D110" s="3">
+        <v>53</v>
+      </c>
+      <c r="E110" s="3">
+        <v>60</v>
+      </c>
+      <c r="F110" s="3">
+        <f t="shared" si="4"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="8">
+        <v>490</v>
+      </c>
+      <c r="B111" s="3">
+        <v>4</v>
+      </c>
+      <c r="C111">
+        <v>47</v>
+      </c>
+      <c r="D111" s="3">
+        <v>52</v>
+      </c>
+      <c r="E111" s="3">
+        <v>58</v>
+      </c>
+      <c r="F111" s="3">
+        <f t="shared" si="4"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="8">
+        <v>491</v>
+      </c>
+      <c r="B112" s="3">
+        <v>2</v>
+      </c>
+      <c r="C112">
+        <v>39</v>
+      </c>
+      <c r="D112" s="3">
+        <v>41</v>
+      </c>
+      <c r="E112" s="3">
+        <v>49</v>
+      </c>
+      <c r="F112" s="3">
+        <f t="shared" si="4"/>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/results2/results.xlsx
+++ b/results2/results.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\luxai\simple\results2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C3E22D-7B25-459A-8FC2-0B20F95ED7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB487A6-B509-4404-BFDB-935C5E732657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12804" yWindow="492" windowWidth="7956" windowHeight="8724" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="light" sheetId="1" r:id="rId1"/>
     <sheet name="imitate" sheetId="2" r:id="rId2"/>
     <sheet name="summary" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="135">
   <si>
     <t>log:C:/git/luxai/light/main</t>
   </si>
@@ -190,24 +191,6 @@
     <t>rule418</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                                                                  complete  1347.8       None          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">submission.rule28.tar.gz                     2021-10-04 20:51:05  rule that works with every type of resource                                                                                                                                                                                                complete  1364.7       None          </t>
-  </si>
-  <si>
-    <t>submission.rule28.tar.gz                     2021-10-04 20:39:31  * Added incremental rules to go and pick up new cluster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                                 complete  1292.9       None          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">submission.rule28.tar.gz                     2021-10-04 20:33:45  Reverted this morning change to see if it does as well as submission.rule27d.tar.gz                                                                                                                                                        complete  1309.9       None          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">submission.rule28.tar.gz                     2021-10-04 10:29:39  * Reverted previous cluster jump aggressive change * A bit more aggressive in first cluster move * Refactored clust_analyses, should be non functional, but can be used to be much smarter in the way we jump from one cluster to another  complete  1333.5       None          </t>
-  </si>
-  <si>
     <t>fileName</t>
   </si>
   <si>
@@ -226,516 +209,15 @@
     <t>privateScore</t>
   </si>
   <si>
-    <t>-------------------------------------------</t>
-  </si>
-  <si>
-    <t>-------------------</t>
-  </si>
-  <si>
-    <t>-----------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------</t>
-  </si>
-  <si>
-    <t>--------</t>
-  </si>
-  <si>
-    <t>-----------</t>
-  </si>
-  <si>
-    <t>------------</t>
-  </si>
-  <si>
-    <t>s.rule431.tar.gz</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
     <t>complete</t>
   </si>
   <si>
-    <t>s.rule430.tar.gz</t>
-  </si>
-  <si>
-    <t>s.rule422b.tar.gz</t>
-  </si>
-  <si>
-    <t>s.rule422.tar.gz</t>
-  </si>
-  <si>
-    <t>s.rule419.tar.gz</t>
-  </si>
-  <si>
-    <t>s.rule405x.tar.gz</t>
-  </si>
-  <si>
-    <t>s.rule418.tar.gz</t>
-  </si>
-  <si>
-    <t>s.rule417.tar.gz</t>
-  </si>
-  <si>
-    <t>s.rule416.tar.gz</t>
-  </si>
-  <si>
-    <t>s.rule415.tar.gz</t>
-  </si>
-  <si>
-    <t>s.rule405c3.tar.gz</t>
-  </si>
-  <si>
-    <t>s.rule413.tar.gz</t>
-  </si>
-  <si>
-    <t>s.rule405c4.tar.gz</t>
-  </si>
-  <si>
-    <t>s.rule414.tar.gz</t>
-  </si>
-  <si>
-    <t>s.rule411.tar.gz</t>
-  </si>
-  <si>
-    <t>s.rule404.tar.gz</t>
-  </si>
-  <si>
-    <t>s.rule305b.tar.gz</t>
-  </si>
-  <si>
-    <t>s.rule403.tar.gz</t>
-  </si>
-  <si>
-    <t>s.rule402b.tar.gz</t>
-  </si>
-  <si>
-    <t>s.rule401.tar.gz</t>
-  </si>
-  <si>
-    <t>s.rule306.tar.gz</t>
-  </si>
-  <si>
-    <t>s.rule30.tar.gz</t>
-  </si>
-  <si>
-    <t>Duplicate</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>outcome</t>
-  </si>
-  <si>
-    <t>s.rule305.tar.gz</t>
-  </si>
-  <si>
-    <t>s.rule303.tar.gz</t>
-  </si>
-  <si>
-    <t>s.rule304.tar.gz</t>
-  </si>
-  <si>
-    <t>R304</t>
-  </si>
-  <si>
-    <t>Also</t>
-  </si>
-  <si>
-    <t>consider</t>
-  </si>
-  <si>
-    <t>enemy</t>
-  </si>
-  <si>
-    <t>occupied</t>
-  </si>
-  <si>
-    <t>cluster</t>
-  </si>
-  <si>
-    <t>as</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>heuristic</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>from</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>another</t>
-  </si>
-  <si>
-    <t>CRASHES</t>
-  </si>
-  <si>
-    <t>r305:</t>
-  </si>
-  <si>
-    <t>r303</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>changes</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>r301</t>
-  </si>
-  <si>
-    <t>r304</t>
-  </si>
-  <si>
-    <t>more</t>
-  </si>
-  <si>
-    <t>aggressive</t>
-  </si>
-  <si>
-    <t>going</t>
-  </si>
-  <si>
-    <t>opponent</t>
-  </si>
-  <si>
-    <t>clusters</t>
-  </si>
-  <si>
-    <t>R303</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>Optimized</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>building</t>
-  </si>
-  <si>
-    <t>cities.*</t>
-  </si>
-  <si>
-    <t>Fixed</t>
-  </si>
-  <si>
-    <t>out</t>
-  </si>
-  <si>
-    <t>map</t>
-  </si>
-  <si>
-    <t>movements</t>
-  </si>
-  <si>
-    <t>s.rule301.tar.gz</t>
-  </si>
-  <si>
-    <t>R301</t>
-  </si>
-  <si>
-    <t>Move</t>
-  </si>
-  <si>
-    <t>only</t>
-  </si>
-  <si>
-    <t>based</t>
-  </si>
-  <si>
-    <t>on</t>
-  </si>
-  <si>
-    <t>score</t>
-  </si>
-  <si>
-    <t>R300</t>
-  </si>
-  <si>
-    <t>Chose</t>
-  </si>
-  <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>rather</t>
-  </si>
-  <si>
-    <t>than</t>
-  </si>
-  <si>
-    <t>distance</t>
-  </si>
-  <si>
-    <t>s.rule29210.tar.gz</t>
-  </si>
-  <si>
-    <t>290+291+292</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>Hostile</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>optimized</t>
-  </si>
-  <si>
-    <t>resources</t>
-  </si>
-  <si>
-    <t>attribution</t>
-  </si>
-  <si>
-    <t>minable</t>
-  </si>
-  <si>
-    <t>s.rule27d8.tar.gz</t>
-  </si>
-  <si>
-    <t>27d8</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>(in</t>
-  </si>
-  <si>
-    <t>theory</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>equivalent</t>
-  </si>
-  <si>
-    <t>27d)</t>
-  </si>
-  <si>
-    <t>s.rule29-0-1-2.tar.gz</t>
-  </si>
-  <si>
-    <t>290+291</t>
-  </si>
-  <si>
-    <t>(double</t>
-  </si>
-  <si>
     <t>submission</t>
   </si>
   <si>
-    <t>mistake)</t>
-  </si>
-  <si>
-    <t>s.rule29-0-1.tar.gz</t>
-  </si>
-  <si>
-    <t>submission.rule27d</t>
-  </si>
-  <si>
-    <t>(2).tar.gz</t>
-  </si>
-  <si>
-    <t>try</t>
-  </si>
-  <si>
-    <t>again</t>
-  </si>
-  <si>
-    <t>with</t>
-  </si>
-  <si>
-    <t>famous</t>
-  </si>
-  <si>
-    <t>27d!</t>
-  </si>
-  <si>
-    <t>s.rule292.tar.gz</t>
-  </si>
-  <si>
-    <t>fixed</t>
-  </si>
-  <si>
-    <t>be</t>
-  </si>
-  <si>
-    <t>within</t>
-  </si>
-  <si>
-    <t>our</t>
-  </si>
-  <si>
-    <t>s.rule291.tar.gz</t>
-  </si>
-  <si>
-    <t>get_direction_to_quick</t>
-  </si>
-  <si>
-    <t>optimised</t>
-  </si>
-  <si>
-    <t>s.rule290.tar.gz</t>
-  </si>
-  <si>
-    <t>is_in_highly_hostile_area</t>
-  </si>
-  <si>
-    <t>num_hostiles_within2</t>
-  </si>
-  <si>
-    <t>&gt;</t>
-  </si>
-  <si>
-    <t>s.rule29.tar.gz</t>
-  </si>
-  <si>
-    <t>init</t>
-  </si>
-  <si>
-    <t>s282.rule28.tar.gz</t>
-  </si>
-  <si>
-    <t>Optimised</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>we</t>
-  </si>
-  <si>
-    <t>walk</t>
-  </si>
-  <si>
-    <t>when</t>
-  </si>
-  <si>
-    <t>travelling</t>
-  </si>
-  <si>
-    <t>or</t>
-  </si>
-  <si>
-    <t>rule28.281.bigger_cluster.tar.gz</t>
-  </si>
-  <si>
-    <t>Added</t>
-  </si>
-  <si>
-    <t>bigger</t>
-  </si>
-  <si>
-    <t>submission.rule28.hostile.management.tar.gz</t>
-  </si>
-  <si>
-    <t>hostile</t>
-  </si>
-  <si>
-    <t>management</t>
-  </si>
-  <si>
-    <t>***</t>
-  </si>
-  <si>
-    <t>Next</t>
-  </si>
-  <si>
-    <t>now</t>
-  </si>
-  <si>
-    <t>applies</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>resource</t>
-  </si>
-  <si>
-    <t>submission.rule28.tar.gz</t>
-  </si>
-  <si>
-    <t>BUG</t>
-  </si>
-  <si>
-    <t>reverted</t>
-  </si>
-  <si>
-    <t>rule</t>
-  </si>
-  <si>
-    <t>that</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>resource.</t>
-  </si>
-  <si>
-    <t>issue</t>
-  </si>
-  <si>
-    <t>identification</t>
-  </si>
-  <si>
-    <t>coal</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>uranium</t>
-  </si>
-  <si>
-    <t>are</t>
-  </si>
-  <si>
-    <t>not</t>
-  </si>
-  <si>
-    <t>researched</t>
-  </si>
-  <si>
     <t>rule403</t>
   </si>
   <si>
@@ -803,6 +285,162 @@
   </si>
   <si>
     <t>488bc</t>
+  </si>
+  <si>
+    <t>502b</t>
+  </si>
+  <si>
+    <t>502c</t>
+  </si>
+  <si>
+    <t>502x</t>
+  </si>
+  <si>
+    <t>504b</t>
+  </si>
+  <si>
+    <t>510b</t>
+  </si>
+  <si>
+    <t>s.rule506.tar.gz</t>
+  </si>
+  <si>
+    <t>s.rule505.tar.gz</t>
+  </si>
+  <si>
+    <t>s.rule507.tar.gz</t>
+  </si>
+  <si>
+    <t>s.rule502b.tar.gz</t>
+  </si>
+  <si>
+    <t>s.rule501b.tar.gz</t>
+  </si>
+  <si>
+    <t>s.rule501.tar.gz</t>
+  </si>
+  <si>
+    <t>s.rule499.tar.gz</t>
+  </si>
+  <si>
+    <t>s.rule498.tar.gz</t>
+  </si>
+  <si>
+    <t>s.rule496.tar.gz</t>
+  </si>
+  <si>
+    <t>s.rule494.tar.gz</t>
+  </si>
+  <si>
+    <t>s.rule493.tar.gz</t>
+  </si>
+  <si>
+    <t>s.rule492.tar.gz</t>
+  </si>
+  <si>
+    <t>s.rule491.tar.gz</t>
+  </si>
+  <si>
+    <t>s.rule490.tar.gz</t>
+  </si>
+  <si>
+    <t>s.rule489.tar.gz</t>
+  </si>
+  <si>
+    <t>s.rule484.tar.gz</t>
+  </si>
+  <si>
+    <t>s.rule488d.tar.gz</t>
+  </si>
+  <si>
+    <t>s.rule488.tar.gz</t>
+  </si>
+  <si>
+    <t>s.rule487.tar.gz</t>
+  </si>
+  <si>
+    <t>s.rule483.tar.gz</t>
+  </si>
+  <si>
+    <t>s.rule482.tar.gz</t>
+  </si>
+  <si>
+    <t>s.rule480.tar.gz</t>
+  </si>
+  <si>
+    <t>s.rule479.tar.gz</t>
+  </si>
+  <si>
+    <t>s.rule478.tar.gz</t>
+  </si>
+  <si>
+    <t>s.rule477.tar.gz</t>
+  </si>
+  <si>
+    <t>s.rule475.tar.gz</t>
+  </si>
+  <si>
+    <t>s.rule474.tar.gz</t>
+  </si>
+  <si>
+    <t>s.rule473.tar.gz</t>
+  </si>
+  <si>
+    <t>s.rule472.tar.gz</t>
+  </si>
+  <si>
+    <t>s.rule471.tar.gz</t>
+  </si>
+  <si>
+    <t>s.rule470.tar.gz</t>
+  </si>
+  <si>
+    <t>s.rule468.tar.gz</t>
+  </si>
+  <si>
+    <t>s.rule467.tar.gz</t>
+  </si>
+  <si>
+    <t>s.rule466b.tar.gz</t>
+  </si>
+  <si>
+    <t>s.rule466.tar.gz</t>
+  </si>
+  <si>
+    <t>s.rule464.tar.gz</t>
+  </si>
+  <si>
+    <t>s.rule463.tar.gz</t>
+  </si>
+  <si>
+    <t>s.rule461.tar.gz</t>
+  </si>
+  <si>
+    <t>s.rule460.tar.gz</t>
+  </si>
+  <si>
+    <t>s.rule459.tar.gz</t>
+  </si>
+  <si>
+    <t>s.rule458.tar.gz</t>
+  </si>
+  <si>
+    <t>s.rule454b.tar.gz</t>
+  </si>
+  <si>
+    <t>s.rule457.tar.gz</t>
+  </si>
+  <si>
+    <t>s.rule456.tar.gz</t>
+  </si>
+  <si>
+    <t>s.rule455.tar.gz</t>
+  </si>
+  <si>
+    <t>kaggle competitions submissions -v -c lux-ai-2021 | grep -v error | clip</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -1287,18 +925,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -2771,19 +2408,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7DEE342-DBC6-45F5-B8C3-642DC33E53FC}">
-  <dimension ref="A1:N112"/>
+  <dimension ref="A1:N136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H110" sqref="H110"/>
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L93" sqref="L93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.21875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="7.21875" style="5" customWidth="1"/>
     <col min="2" max="3" width="6" customWidth="1"/>
     <col min="4" max="6" width="6" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="7"/>
+    <col min="7" max="7" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -2794,16 +2431,16 @@
         <v>31</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>246</v>
+        <v>73</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>249</v>
+        <v>76</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>173</v>
+        <v>74</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -2811,7 +2448,7 @@
       <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C2">
@@ -2827,13 +2464,13 @@
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C3">
         <v>75</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="4">
         <v>1369.3</v>
       </c>
       <c r="I3" s="3"/>
@@ -2844,7 +2481,7 @@
       <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C4">
@@ -2858,7 +2495,7 @@
       <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C5">
@@ -2872,7 +2509,7 @@
       <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C6">
@@ -2886,7 +2523,7 @@
       <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C7">
@@ -2900,13 +2537,13 @@
       <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C8">
         <v>82</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="4">
         <v>1319.9</v>
       </c>
       <c r="I8" s="3"/>
@@ -2917,10 +2554,10 @@
       <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="G9" s="7">
+      <c r="A9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="4">
         <v>1338</v>
       </c>
       <c r="J9" s="1"/>
@@ -2928,7 +2565,7 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C10">
@@ -2942,13 +2579,13 @@
       <c r="N10" s="3"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C11">
         <v>74</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="4">
         <v>1334.9</v>
       </c>
       <c r="I11" s="3"/>
@@ -2959,13 +2596,13 @@
       <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C12">
         <v>85</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="4">
         <v>1341.9</v>
       </c>
       <c r="I12" s="3"/>
@@ -2976,7 +2613,7 @@
       <c r="N12" s="3"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C13">
@@ -2990,13 +2627,13 @@
       <c r="N13" s="3"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C14">
         <v>93</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="4">
         <v>1343.4</v>
       </c>
       <c r="I14" s="3"/>
@@ -3007,7 +2644,7 @@
       <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C15">
@@ -3021,13 +2658,13 @@
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C16">
         <v>88</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="4">
         <v>1328.4</v>
       </c>
       <c r="I16" s="3"/>
@@ -3038,13 +2675,13 @@
       <c r="N16" s="3"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C17">
         <v>85</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="4">
         <v>1293.3</v>
       </c>
       <c r="I17" s="3"/>
@@ -3055,13 +2692,13 @@
       <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C18">
         <v>81</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="4">
         <v>1328.2</v>
       </c>
       <c r="I18" s="3"/>
@@ -3072,7 +2709,7 @@
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B19">
@@ -3085,7 +2722,7 @@
         <f>B19+C19</f>
         <v>89</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="4">
         <v>1329.7</v>
       </c>
       <c r="I19" s="3"/>
@@ -3096,13 +2733,13 @@
       <c r="N19" s="3"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C20">
         <v>80</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="4">
         <v>1303.7</v>
       </c>
       <c r="I20" s="3"/>
@@ -3113,13 +2750,13 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C21">
         <v>77</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="4">
         <v>1337.6</v>
       </c>
       <c r="I21" s="3"/>
@@ -3130,7 +2767,7 @@
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B22">
@@ -3143,7 +2780,7 @@
         <f>B22+C22</f>
         <v>84</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="4">
         <v>1334.4</v>
       </c>
       <c r="I22" s="3"/>
@@ -3154,7 +2791,7 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B23">
@@ -3175,7 +2812,7 @@
       <c r="N23" s="3"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B24">
@@ -3196,7 +2833,7 @@
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B25">
@@ -3209,7 +2846,7 @@
         <f>B25+C25</f>
         <v>68</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="4">
         <v>1324</v>
       </c>
       <c r="I25" s="3"/>
@@ -3220,13 +2857,13 @@
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B26">
         <v>5</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="4">
         <v>1334</v>
       </c>
       <c r="I26" s="3"/>
@@ -3237,7 +2874,7 @@
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B27">
@@ -3258,7 +2895,7 @@
       <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B28">
@@ -3279,7 +2916,7 @@
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B29">
@@ -3293,7 +2930,7 @@
       <c r="N29" s="3"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B30">
@@ -3314,7 +2951,7 @@
       <c r="N30" s="3"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B31">
@@ -3335,7 +2972,7 @@
       <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B32">
@@ -3356,7 +2993,7 @@
       <c r="N32" s="3"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B33">
@@ -3377,7 +3014,7 @@
       <c r="N33" s="3"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B34">
@@ -3390,7 +3027,7 @@
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="4">
         <v>1404</v>
       </c>
       <c r="I34" s="3"/>
@@ -3401,7 +3038,7 @@
       <c r="N34" s="3"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B35">
@@ -3414,7 +3051,7 @@
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="4">
         <v>1308</v>
       </c>
       <c r="H35" s="2"/>
@@ -3426,7 +3063,7 @@
       <c r="N35" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B36">
@@ -3439,7 +3076,7 @@
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="4">
         <v>1366</v>
       </c>
       <c r="H36" s="2"/>
@@ -3451,7 +3088,7 @@
       <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B37">
@@ -3464,7 +3101,7 @@
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="4">
         <v>1391</v>
       </c>
       <c r="I37" s="3"/>
@@ -3475,7 +3112,7 @@
       <c r="N37" s="3"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B38">
@@ -3496,7 +3133,7 @@
       <c r="N38" s="3"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B39">
@@ -3509,7 +3146,7 @@
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="4">
         <v>1368</v>
       </c>
       <c r="H39" s="2"/>
@@ -3521,7 +3158,7 @@
       <c r="N39" s="3"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B40">
@@ -3542,7 +3179,7 @@
       <c r="N40" s="3"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B41">
@@ -3563,7 +3200,7 @@
       <c r="N41" s="3"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B42">
@@ -3584,7 +3221,7 @@
       <c r="N42" s="3"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B43">
@@ -3605,7 +3242,7 @@
       <c r="N43" s="3"/>
     </row>
     <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B44">
@@ -3626,7 +3263,7 @@
       <c r="N44" s="3"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B45">
@@ -3639,7 +3276,7 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G45" s="4">
         <v>1394</v>
       </c>
       <c r="H45" s="2"/>
@@ -3651,7 +3288,7 @@
       <c r="N45" s="3"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B46">
@@ -3672,7 +3309,7 @@
       <c r="N46" s="3"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B47">
@@ -3693,8 +3330,8 @@
       <c r="N47" s="3"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="8" t="s">
-        <v>235</v>
+      <c r="A48" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -3706,14 +3343,14 @@
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G48" s="4">
         <v>1402</v>
       </c>
       <c r="H48" s="2"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="8" t="s">
-        <v>236</v>
+      <c r="A49" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="B49">
         <v>4</v>
@@ -3725,16 +3362,16 @@
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G49" s="4">
         <v>1395</v>
       </c>
       <c r="H49" t="s">
-        <v>234</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="8" t="s">
-        <v>237</v>
+      <c r="A50" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="B50">
         <v>4</v>
@@ -3746,16 +3383,16 @@
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G50" s="4">
         <v>1361</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>234</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="8" t="s">
-        <v>238</v>
+      <c r="A51" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="B51">
         <v>4</v>
@@ -3769,8 +3406,8 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="8" t="s">
-        <v>239</v>
+      <c r="A52" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -3784,8 +3421,8 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="8" t="s">
-        <v>240</v>
+      <c r="A53" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -3798,12 +3435,12 @@
         <v>58</v>
       </c>
       <c r="H53" t="s">
-        <v>234</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="8" t="s">
-        <v>241</v>
+      <c r="A54" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="B54">
         <v>3</v>
@@ -3817,8 +3454,8 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="8" t="s">
-        <v>242</v>
+      <c r="A55" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="B55">
         <v>3</v>
@@ -3833,16 +3470,16 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="G55" s="7">
+      <c r="G55" s="4">
         <v>1371</v>
       </c>
       <c r="H55" t="s">
-        <v>234</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="8" t="s">
-        <v>243</v>
+      <c r="A56" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -3857,16 +3494,16 @@
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G56" s="4">
         <f>(1407+1386)/2</f>
         <v>1396.5</v>
       </c>
       <c r="H56" t="s">
-        <v>234</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="8">
+      <c r="A57" s="5">
         <v>445</v>
       </c>
       <c r="B57">
@@ -3882,13 +3519,13 @@
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="G57" s="7">
+      <c r="G57" s="4">
         <f>(1392+1428)/2</f>
         <v>1410</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="8">
+      <c r="A58" s="5">
         <v>446</v>
       </c>
       <c r="B58">
@@ -3904,13 +3541,13 @@
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
-      <c r="G58" s="7">
+      <c r="G58" s="4">
         <f>(1408+1360)/2</f>
         <v>1384</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="8">
+      <c r="A59" s="5">
         <v>447</v>
       </c>
       <c r="B59">
@@ -3926,21 +3563,21 @@
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
-      <c r="G59" s="7">
+      <c r="G59" s="4">
         <v>1386</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="8" t="s">
-        <v>244</v>
+      <c r="A60" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="B60" s="3">
         <v>12</v>
       </c>
-      <c r="G60" s="7"/>
+      <c r="G60" s="4"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="8">
+      <c r="A61" s="5">
         <f>A59+1</f>
         <v>448</v>
       </c>
@@ -3960,9 +3597,13 @@
         <f>SUM(B61:E61)</f>
         <v>225</v>
       </c>
+      <c r="H61" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A61,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="8">
+      <c r="A62" s="5">
         <f>A61+1</f>
         <v>449</v>
       </c>
@@ -3982,9 +3623,13 @@
         <f t="shared" ref="F62:F65" si="3">SUM(B62:E62)</f>
         <v>191</v>
       </c>
+      <c r="H62" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A62,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="8">
+      <c r="A63" s="5">
         <f>A62+1</f>
         <v>450</v>
       </c>
@@ -4004,12 +3649,16 @@
         <f t="shared" si="3"/>
         <v>183</v>
       </c>
-      <c r="G63" s="7">
+      <c r="G63" s="4">
         <v>1387</v>
       </c>
+      <c r="H63" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A63,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="8">
+      <c r="A64" s="5">
         <f>A63+1</f>
         <v>451</v>
       </c>
@@ -4029,13 +3678,17 @@
         <f t="shared" si="3"/>
         <v>173</v>
       </c>
-      <c r="G64" s="7">
+      <c r="G64" s="4">
         <v>1348</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="8" t="s">
-        <v>245</v>
+      <c r="H64" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A64,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="B65" s="3">
         <v>2</v>
@@ -4053,12 +3706,16 @@
         <f t="shared" si="3"/>
         <v>176</v>
       </c>
-      <c r="G65" s="7">
+      <c r="G65" s="4">
         <v>1411</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="8">
+      <c r="H65" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A65,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="5">
         <f>A64+1</f>
         <v>452</v>
       </c>
@@ -4071,12 +3728,16 @@
       <c r="E66" s="3">
         <v>54</v>
       </c>
-      <c r="G66" s="7">
+      <c r="G66" s="4">
         <v>1392</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="8">
+      <c r="H66" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A66,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="5">
         <f>A66+1</f>
         <v>453</v>
       </c>
@@ -4096,13 +3757,17 @@
         <f t="shared" ref="F67:F112" si="4">SUM(B67:E67)</f>
         <v>162</v>
       </c>
-      <c r="G67" s="7">
+      <c r="G67" s="4">
         <f>(1397+1391)/2</f>
         <v>1394</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="8">
+      <c r="H67" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A67,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="5">
         <f>A67+1</f>
         <v>454</v>
       </c>
@@ -4122,13 +3787,17 @@
         <f t="shared" si="4"/>
         <v>161</v>
       </c>
-      <c r="G68" s="7">
+      <c r="G68" s="4">
         <f>(1418+1355)/2</f>
         <v>1386.5</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="8">
+      <c r="H68" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A68,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="5">
         <f>A68+1</f>
         <v>455</v>
       </c>
@@ -4148,12 +3817,16 @@
         <f t="shared" si="4"/>
         <v>169</v>
       </c>
-      <c r="G69" s="7">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="8">
+      <c r="G69" s="4">
+        <v>1337.7</v>
+      </c>
+      <c r="H69" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A69,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v>1337.7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="5">
         <f>A69+1</f>
         <v>456</v>
       </c>
@@ -4173,12 +3846,16 @@
         <f t="shared" si="4"/>
         <v>171</v>
       </c>
-      <c r="G70" s="7">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="8">
+      <c r="G70" s="4">
+        <v>1381.5</v>
+      </c>
+      <c r="H70" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A70,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v>1381.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="5">
         <f>A70+1</f>
         <v>457</v>
       </c>
@@ -4198,12 +3875,16 @@
         <f t="shared" si="4"/>
         <v>209</v>
       </c>
-      <c r="G71" s="7">
-        <v>1427</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="8">
+      <c r="G71" s="4">
+        <v>1432.3</v>
+      </c>
+      <c r="H71" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A71,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v>1432.3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="5">
         <f>A71+1</f>
         <v>458</v>
       </c>
@@ -4223,12 +3904,16 @@
         <f t="shared" si="4"/>
         <v>172</v>
       </c>
-      <c r="G72" s="7">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="8">
+      <c r="G72" s="4">
+        <v>1442</v>
+      </c>
+      <c r="H72" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A72,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="5">
         <f>A72+1</f>
         <v>459</v>
       </c>
@@ -4248,12 +3933,16 @@
         <f t="shared" si="4"/>
         <v>167</v>
       </c>
-      <c r="G73" s="7">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="8">
+      <c r="G73" s="4">
+        <v>1415</v>
+      </c>
+      <c r="H73" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A73,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="5">
         <f>A73+1</f>
         <v>460</v>
       </c>
@@ -4273,12 +3962,16 @@
         <f t="shared" si="4"/>
         <v>158</v>
       </c>
-      <c r="G74" s="7">
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="8">
+      <c r="G74" s="4">
+        <v>1390.1</v>
+      </c>
+      <c r="H74" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A74,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v>1390.1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="5">
         <f>A74+1</f>
         <v>461</v>
       </c>
@@ -4298,12 +3991,16 @@
         <f t="shared" si="4"/>
         <v>158</v>
       </c>
-      <c r="G75" s="7">
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="8">
+      <c r="G75" s="4">
+        <v>1376.6</v>
+      </c>
+      <c r="H75" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A75,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v>1376.6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="5">
         <f>A75+1</f>
         <v>462</v>
       </c>
@@ -4323,9 +4020,16 @@
         <f t="shared" si="4"/>
         <v>161</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="8">
+      <c r="G76" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H76" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A76,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="5">
         <f>A76+1</f>
         <v>463</v>
       </c>
@@ -4345,12 +4049,16 @@
         <f t="shared" si="4"/>
         <v>161</v>
       </c>
-      <c r="G77" s="7">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="8">
+      <c r="G77" s="4">
+        <v>1382.7</v>
+      </c>
+      <c r="H77" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A77,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v>1382.7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="5">
         <f>A77+1</f>
         <v>464</v>
       </c>
@@ -4370,12 +4078,16 @@
         <f t="shared" si="4"/>
         <v>176</v>
       </c>
-      <c r="G78" s="7">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="8">
+      <c r="G78" s="4">
+        <v>1418.4</v>
+      </c>
+      <c r="H78" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A78,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v>1418.4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="5">
         <f>A78+1</f>
         <v>465</v>
       </c>
@@ -4395,10 +4107,17 @@
         <f t="shared" si="4"/>
         <v>178</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="8" t="s">
-        <v>248</v>
+      <c r="G79" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H79" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A79,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="B80">
         <v>2</v>
@@ -4416,9 +4135,16 @@
         <f t="shared" si="4"/>
         <v>168</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="8">
+      <c r="G80" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H80" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A80,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="5">
         <v>466</v>
       </c>
       <c r="B81">
@@ -4437,13 +4163,17 @@
         <f t="shared" si="4"/>
         <v>166</v>
       </c>
-      <c r="G81" s="7">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="8" t="s">
-        <v>250</v>
+      <c r="G81" s="4">
+        <v>1359.4</v>
+      </c>
+      <c r="H81" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A81,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v>1359.4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="B82" s="3">
         <v>4</v>
@@ -4461,12 +4191,16 @@
         <f t="shared" si="4"/>
         <v>157</v>
       </c>
-      <c r="G82" s="7">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="8">
+      <c r="G82" s="4">
+        <v>1359.8</v>
+      </c>
+      <c r="H82" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A82,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v>1359.8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="5">
         <v>467</v>
       </c>
       <c r="B83">
@@ -4485,13 +4219,17 @@
         <f t="shared" si="4"/>
         <v>167</v>
       </c>
-      <c r="G83" s="7">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="8" t="s">
-        <v>251</v>
+      <c r="G83" s="4">
+        <v>1395.1</v>
+      </c>
+      <c r="H83" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A83,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v>1395.1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="B84">
         <v>5</v>
@@ -4509,9 +4247,16 @@
         <f t="shared" si="4"/>
         <v>161</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" s="8">
+      <c r="G84" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H84" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A84,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="5">
         <v>468</v>
       </c>
       <c r="B85">
@@ -4530,12 +4275,16 @@
         <f t="shared" si="4"/>
         <v>163</v>
       </c>
-      <c r="G85" s="7">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" s="8">
+      <c r="G85" s="4">
+        <v>1391.8</v>
+      </c>
+      <c r="H85" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A85,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v>1391.8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="5">
         <v>469</v>
       </c>
       <c r="B86">
@@ -4554,9 +4303,16 @@
         <f t="shared" si="4"/>
         <v>163</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" s="8">
+      <c r="G86" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H86" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A86,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="5">
         <v>470</v>
       </c>
       <c r="B87">
@@ -4575,12 +4331,16 @@
         <f t="shared" si="4"/>
         <v>160</v>
       </c>
-      <c r="G87" s="7">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" s="8">
+      <c r="G87" s="4">
+        <v>1377.5</v>
+      </c>
+      <c r="H87" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A87,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v>1377.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="5">
         <v>471</v>
       </c>
       <c r="B88">
@@ -4599,12 +4359,16 @@
         <f t="shared" si="4"/>
         <v>158</v>
       </c>
-      <c r="G88" s="7">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" s="8">
+      <c r="G88" s="4">
+        <v>1383.2</v>
+      </c>
+      <c r="H88" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A88,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v>1383.2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="5">
         <f t="shared" ref="A89:A90" si="5">A88+1</f>
         <v>472</v>
       </c>
@@ -4624,12 +4388,16 @@
         <f t="shared" si="4"/>
         <v>164</v>
       </c>
-      <c r="G89" s="7">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90" s="8">
+      <c r="G89" s="4">
+        <v>1394.3</v>
+      </c>
+      <c r="H89" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A89,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v>1394.3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="5">
         <f t="shared" si="5"/>
         <v>473</v>
       </c>
@@ -4646,15 +4414,19 @@
         <v>55</v>
       </c>
       <c r="F90" s="3">
-        <f t="shared" si="4"/>
+        <f>SUM(B90:E90)</f>
         <v>163</v>
       </c>
-      <c r="G90" s="7">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="8">
+      <c r="G90" s="4">
+        <v>1404.1</v>
+      </c>
+      <c r="H90" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A90,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v>1404.1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="5">
         <v>474</v>
       </c>
       <c r="B91">
@@ -4670,15 +4442,19 @@
         <v>53</v>
       </c>
       <c r="F91" s="3">
-        <f t="shared" si="4"/>
+        <f>SUM(B91:E91)</f>
         <v>158</v>
       </c>
-      <c r="G91" s="7">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" s="8">
+      <c r="G91" s="4">
+        <v>1347</v>
+      </c>
+      <c r="H91" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A91,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="5">
         <v>475</v>
       </c>
       <c r="B92">
@@ -4697,12 +4473,16 @@
         <f t="shared" si="4"/>
         <v>162</v>
       </c>
-      <c r="G92" s="7">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93" s="8">
+      <c r="G92" s="4">
+        <v>1429.4</v>
+      </c>
+      <c r="H92" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A92,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v>1429.4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="5">
         <v>476</v>
       </c>
       <c r="B93">
@@ -4721,9 +4501,16 @@
         <f t="shared" si="4"/>
         <v>179</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94" s="8">
+      <c r="G93" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H93" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A93,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="5">
         <v>477</v>
       </c>
       <c r="B94">
@@ -4742,12 +4529,16 @@
         <f t="shared" si="4"/>
         <v>169</v>
       </c>
-      <c r="G94" s="7">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" s="8">
+      <c r="G94" s="4">
+        <v>1395</v>
+      </c>
+      <c r="H94" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A94,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="5">
         <v>478</v>
       </c>
       <c r="B95">
@@ -4766,12 +4557,16 @@
         <f t="shared" si="4"/>
         <v>164</v>
       </c>
-      <c r="G95" s="7">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" s="8">
+      <c r="G95" s="4">
+        <v>1425.7</v>
+      </c>
+      <c r="H95" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A95,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v>1425.7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="5">
         <v>479</v>
       </c>
       <c r="B96">
@@ -4790,12 +4585,16 @@
         <f t="shared" si="4"/>
         <v>163</v>
       </c>
-      <c r="G96" s="7">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" s="8">
+      <c r="G96" s="4">
+        <v>1399.6</v>
+      </c>
+      <c r="H96" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A96,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v>1399.6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="5">
         <v>480</v>
       </c>
       <c r="B97">
@@ -4814,12 +4613,16 @@
         <f t="shared" si="4"/>
         <v>160</v>
       </c>
-      <c r="G97" s="7">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" s="8">
+      <c r="G97" s="4">
+        <v>1392.8</v>
+      </c>
+      <c r="H97" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A97,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v>1392.8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="5">
         <v>481</v>
       </c>
       <c r="B98">
@@ -4838,9 +4641,16 @@
         <f t="shared" si="4"/>
         <v>157</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A99" s="8">
+      <c r="G98" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H98" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A98,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" s="5">
         <v>482</v>
       </c>
       <c r="B99">
@@ -4859,12 +4669,16 @@
         <f t="shared" si="4"/>
         <v>164</v>
       </c>
-      <c r="G99" s="7">
-        <v>1446</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100" s="8">
+      <c r="G99" s="4">
+        <v>1409.6</v>
+      </c>
+      <c r="H99" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A99,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v>1409.6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" s="5">
         <v>483</v>
       </c>
       <c r="B100">
@@ -4883,12 +4697,16 @@
         <f t="shared" si="4"/>
         <v>159</v>
       </c>
-      <c r="G100" s="7">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101" s="8">
+      <c r="G100" s="4">
+        <v>1398.1</v>
+      </c>
+      <c r="H100" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A100,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v>1398.1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="5">
         <v>484</v>
       </c>
       <c r="B101">
@@ -4907,9 +4725,16 @@
         <f t="shared" si="4"/>
         <v>145</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" s="8">
+      <c r="G101" s="4">
+        <v>1410.2</v>
+      </c>
+      <c r="H101" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A101,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v>1410.2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="5">
         <v>485</v>
       </c>
       <c r="B102">
@@ -4928,9 +4753,16 @@
         <f t="shared" si="4"/>
         <v>149</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A103" s="8">
+      <c r="G102" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H102" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A102,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" s="5">
         <v>486</v>
       </c>
       <c r="B103">
@@ -4949,9 +4781,16 @@
         <f t="shared" si="4"/>
         <v>153</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A104" s="8">
+      <c r="G103" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H103" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A103,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" s="5">
         <v>487</v>
       </c>
       <c r="B104">
@@ -4970,12 +4809,16 @@
         <f t="shared" si="4"/>
         <v>159</v>
       </c>
-      <c r="G104" s="7">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A105" s="8">
+      <c r="G104" s="4">
+        <v>1379.9</v>
+      </c>
+      <c r="H104" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A104,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v>1379.9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" s="5">
         <v>488</v>
       </c>
       <c r="B105">
@@ -4994,13 +4837,17 @@
         <f t="shared" si="4"/>
         <v>152</v>
       </c>
-      <c r="G105" s="7">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="8" t="s">
-        <v>253</v>
+      <c r="G105" s="4">
+        <v>1461.5</v>
+      </c>
+      <c r="H105" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A105,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v>1461.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="B106" s="3">
         <v>3</v>
@@ -5018,11 +4865,17 @@
         <f t="shared" si="4"/>
         <v>158</v>
       </c>
-      <c r="G106" s="7"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107" s="8" t="s">
-        <v>254</v>
+      <c r="G106" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H106" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A106,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -5040,10 +4893,17 @@
         <f t="shared" si="4"/>
         <v>155</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108" s="8" t="s">
-        <v>252</v>
+      <c r="G107" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H107" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A107,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="B108">
         <v>2</v>
@@ -5061,13 +4921,17 @@
         <f t="shared" si="4"/>
         <v>159</v>
       </c>
-      <c r="G108" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109" s="8" t="s">
-        <v>255</v>
+      <c r="G108" s="4">
+        <v>1427.4</v>
+      </c>
+      <c r="H108" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A108,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v>1427.4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="B109">
         <v>4</v>
@@ -5085,9 +4949,16 @@
         <f t="shared" si="4"/>
         <v>161</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A110" s="8">
+      <c r="G109" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H109" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A109,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" s="5">
         <v>489</v>
       </c>
       <c r="B110">
@@ -5106,9 +4977,16 @@
         <f t="shared" si="4"/>
         <v>159</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A111" s="8">
+      <c r="G110" s="4">
+        <v>1383.1</v>
+      </c>
+      <c r="H110" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A110,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v>1383.1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="5">
         <v>490</v>
       </c>
       <c r="B111" s="3">
@@ -5127,9 +5005,16 @@
         <f t="shared" si="4"/>
         <v>161</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112" s="8">
+      <c r="G111" s="4">
+        <v>1431.4</v>
+      </c>
+      <c r="H111" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A111,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v>1431.4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" s="5">
         <v>491</v>
       </c>
       <c r="B112" s="3">
@@ -5147,6 +5032,626 @@
       <c r="F112" s="3">
         <f t="shared" si="4"/>
         <v>131</v>
+      </c>
+      <c r="G112" s="4">
+        <v>1419.1</v>
+      </c>
+      <c r="H112" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A112,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v>1419.1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" s="5">
+        <v>492</v>
+      </c>
+      <c r="B113">
+        <v>2</v>
+      </c>
+      <c r="C113">
+        <v>38</v>
+      </c>
+      <c r="D113" s="3">
+        <v>47</v>
+      </c>
+      <c r="E113" s="3">
+        <v>54</v>
+      </c>
+      <c r="F113" s="3">
+        <f t="shared" ref="F113:F132" si="6">SUM(B113:E113)</f>
+        <v>141</v>
+      </c>
+      <c r="G113" s="4">
+        <v>1345.9</v>
+      </c>
+      <c r="H113" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A113,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v>1345.9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" s="5">
+        <v>493</v>
+      </c>
+      <c r="B114">
+        <v>2</v>
+      </c>
+      <c r="C114">
+        <v>42</v>
+      </c>
+      <c r="D114" s="3">
+        <v>46</v>
+      </c>
+      <c r="E114" s="3">
+        <v>53</v>
+      </c>
+      <c r="F114" s="3">
+        <f t="shared" si="6"/>
+        <v>143</v>
+      </c>
+      <c r="G114" s="4">
+        <v>1411.8</v>
+      </c>
+      <c r="H114" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A114,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v>1411.8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" s="5">
+        <v>494</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+      <c r="C115">
+        <v>43</v>
+      </c>
+      <c r="D115" s="3">
+        <v>45</v>
+      </c>
+      <c r="E115" s="3">
+        <v>52</v>
+      </c>
+      <c r="F115" s="3">
+        <f t="shared" si="6"/>
+        <v>142</v>
+      </c>
+      <c r="G115" s="4">
+        <v>1398</v>
+      </c>
+      <c r="H115" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A115,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="5">
+        <v>495</v>
+      </c>
+      <c r="B116">
+        <v>2</v>
+      </c>
+      <c r="C116">
+        <v>43</v>
+      </c>
+      <c r="D116" s="3">
+        <v>45</v>
+      </c>
+      <c r="E116" s="3">
+        <v>52</v>
+      </c>
+      <c r="F116" s="3">
+        <f t="shared" si="6"/>
+        <v>142</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H116" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A116,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="5">
+        <v>496</v>
+      </c>
+      <c r="B117">
+        <v>3</v>
+      </c>
+      <c r="C117">
+        <v>34</v>
+      </c>
+      <c r="D117" s="3">
+        <v>42</v>
+      </c>
+      <c r="E117" s="3">
+        <v>48</v>
+      </c>
+      <c r="F117" s="3">
+        <f t="shared" si="6"/>
+        <v>127</v>
+      </c>
+      <c r="G117" s="4">
+        <v>1428.5</v>
+      </c>
+      <c r="H117" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A117,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v>1428.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" s="5">
+        <f t="shared" ref="A118:A122" si="7">A117+1</f>
+        <v>497</v>
+      </c>
+      <c r="B118">
+        <v>3</v>
+      </c>
+      <c r="C118">
+        <v>34</v>
+      </c>
+      <c r="D118" s="3">
+        <v>42</v>
+      </c>
+      <c r="E118" s="3">
+        <v>48</v>
+      </c>
+      <c r="F118" s="3">
+        <f t="shared" si="6"/>
+        <v>127</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H118" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A118,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" s="5">
+        <f t="shared" si="7"/>
+        <v>498</v>
+      </c>
+      <c r="B119">
+        <v>3</v>
+      </c>
+      <c r="C119">
+        <v>36</v>
+      </c>
+      <c r="D119" s="3">
+        <v>43</v>
+      </c>
+      <c r="E119" s="3">
+        <v>46</v>
+      </c>
+      <c r="F119" s="3">
+        <f t="shared" si="6"/>
+        <v>128</v>
+      </c>
+      <c r="G119" s="4">
+        <v>1400.5</v>
+      </c>
+      <c r="H119" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A119,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v>1400.5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" s="5">
+        <f t="shared" si="7"/>
+        <v>499</v>
+      </c>
+      <c r="B120">
+        <v>3</v>
+      </c>
+      <c r="C120">
+        <v>36</v>
+      </c>
+      <c r="D120" s="3">
+        <v>44</v>
+      </c>
+      <c r="E120" s="3">
+        <v>45</v>
+      </c>
+      <c r="F120" s="3">
+        <f t="shared" si="6"/>
+        <v>128</v>
+      </c>
+      <c r="G120" s="4">
+        <v>1408.9</v>
+      </c>
+      <c r="H120" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A120,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v>1408.9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" s="5">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="B121">
+        <v>3</v>
+      </c>
+      <c r="C121" s="3">
+        <v>36</v>
+      </c>
+      <c r="D121" s="3">
+        <v>50</v>
+      </c>
+      <c r="E121" s="3">
+        <v>45</v>
+      </c>
+      <c r="F121" s="3">
+        <f t="shared" si="6"/>
+        <v>134</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H121" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A121,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122" s="5">
+        <f t="shared" si="7"/>
+        <v>501</v>
+      </c>
+      <c r="B122">
+        <v>3</v>
+      </c>
+      <c r="C122" s="3">
+        <v>36</v>
+      </c>
+      <c r="D122" s="3">
+        <v>45</v>
+      </c>
+      <c r="E122" s="3">
+        <v>43</v>
+      </c>
+      <c r="F122" s="3">
+        <f t="shared" si="6"/>
+        <v>127</v>
+      </c>
+      <c r="G122" s="4">
+        <v>1420.6</v>
+      </c>
+      <c r="H122" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A122,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v>1420.6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123" s="5">
+        <v>502</v>
+      </c>
+      <c r="B123">
+        <v>4</v>
+      </c>
+      <c r="C123">
+        <v>38</v>
+      </c>
+      <c r="D123" s="3">
+        <v>52</v>
+      </c>
+      <c r="E123" s="3">
+        <v>46</v>
+      </c>
+      <c r="F123" s="3">
+        <f t="shared" si="6"/>
+        <v>140</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H123" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A123,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B124">
+        <v>4</v>
+      </c>
+      <c r="C124">
+        <v>41</v>
+      </c>
+      <c r="D124" s="3">
+        <v>47</v>
+      </c>
+      <c r="E124" s="3">
+        <v>40</v>
+      </c>
+      <c r="F124" s="3">
+        <f t="shared" si="6"/>
+        <v>132</v>
+      </c>
+      <c r="G124" s="4">
+        <v>1363.1</v>
+      </c>
+      <c r="H124" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A124,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v>1363.1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B125">
+        <v>3</v>
+      </c>
+      <c r="C125">
+        <v>38</v>
+      </c>
+      <c r="D125" s="3">
+        <v>47</v>
+      </c>
+      <c r="E125" s="3">
+        <v>43</v>
+      </c>
+      <c r="F125" s="3">
+        <f t="shared" si="6"/>
+        <v>131</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H125" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A125,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B126">
+        <v>3</v>
+      </c>
+      <c r="C126">
+        <v>36</v>
+      </c>
+      <c r="D126" s="3">
+        <v>45</v>
+      </c>
+      <c r="E126" s="3">
+        <v>43</v>
+      </c>
+      <c r="F126" s="3">
+        <f t="shared" si="6"/>
+        <v>127</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H126" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A126,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" s="5">
+        <v>503</v>
+      </c>
+      <c r="B127">
+        <v>3</v>
+      </c>
+      <c r="C127">
+        <v>40</v>
+      </c>
+      <c r="D127" s="3">
+        <v>45</v>
+      </c>
+      <c r="E127" s="3">
+        <v>43</v>
+      </c>
+      <c r="F127" s="3">
+        <f t="shared" si="6"/>
+        <v>131</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H127" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A127,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128" s="5">
+        <v>504</v>
+      </c>
+      <c r="B128">
+        <v>4</v>
+      </c>
+      <c r="C128">
+        <v>41</v>
+      </c>
+      <c r="D128" s="3">
+        <v>47</v>
+      </c>
+      <c r="E128" s="3">
+        <v>44</v>
+      </c>
+      <c r="F128" s="3">
+        <f t="shared" si="6"/>
+        <v>136</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H128" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A128,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B129">
+        <v>3</v>
+      </c>
+      <c r="C129">
+        <v>40</v>
+      </c>
+      <c r="D129" s="3">
+        <v>45</v>
+      </c>
+      <c r="E129" s="3">
+        <v>44</v>
+      </c>
+      <c r="F129" s="3">
+        <f t="shared" si="6"/>
+        <v>132</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H129" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A129,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130" s="5">
+        <v>505</v>
+      </c>
+      <c r="B130">
+        <v>5</v>
+      </c>
+      <c r="C130">
+        <v>32</v>
+      </c>
+      <c r="D130" s="3">
+        <v>47</v>
+      </c>
+      <c r="E130" s="3">
+        <v>44</v>
+      </c>
+      <c r="F130" s="3">
+        <f t="shared" si="6"/>
+        <v>128</v>
+      </c>
+      <c r="G130" s="4">
+        <v>1243.9000000000001</v>
+      </c>
+      <c r="H130" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A130,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v>1243.9000000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131" s="5">
+        <v>506</v>
+      </c>
+      <c r="B131">
+        <v>2</v>
+      </c>
+      <c r="C131">
+        <v>29</v>
+      </c>
+      <c r="D131" s="3">
+        <v>46</v>
+      </c>
+      <c r="E131" s="3">
+        <v>47</v>
+      </c>
+      <c r="F131" s="3">
+        <f t="shared" si="6"/>
+        <v>124</v>
+      </c>
+      <c r="G131" s="4">
+        <v>1198.0999999999999</v>
+      </c>
+      <c r="H131" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A131,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v>1198.0999999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132" s="5">
+        <v>507</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <v>35</v>
+      </c>
+      <c r="D132" s="3">
+        <v>49</v>
+      </c>
+      <c r="E132" s="3">
+        <v>48</v>
+      </c>
+      <c r="F132" s="3">
+        <f t="shared" si="6"/>
+        <v>133</v>
+      </c>
+      <c r="G132" s="4">
+        <v>1393.3</v>
+      </c>
+      <c r="H132" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A132,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v>1393.3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133" s="5">
+        <v>508</v>
+      </c>
+      <c r="B133">
+        <v>4</v>
+      </c>
+      <c r="E133" s="3">
+        <v>43</v>
+      </c>
+      <c r="H133" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A133,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134" s="5">
+        <v>509</v>
+      </c>
+      <c r="B134">
+        <v>3</v>
+      </c>
+      <c r="H134" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A134,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" s="5">
+        <v>510</v>
+      </c>
+      <c r="B135">
+        <v>4</v>
+      </c>
+      <c r="H135" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A135,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H136" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(CONCATENATE("s.rule",A136,".tar.gz"),Sheet1!A:F,5,0),"")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -5156,1952 +5661,1077 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43632689-25AA-4D8A-B170-6847CBD8D85D}">
-  <dimension ref="A1:X59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00E0327-29BA-4FC0-9F83-AAD3379CE9B9}">
+  <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="4">
-        <v>44482</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.72478009259259257</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1343.4</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="4">
-        <v>44482</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.72399305555555549</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1431.2</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="4">
-        <v>44482</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.59440972222222221</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1354.8</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="4">
-        <v>44482</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0.39799768518518519</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1320.8</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="4">
-        <v>44482</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0.19456018518518517</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1334.4</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="4">
-        <v>44481</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0.81811342592592595</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1375.1</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="4">
-        <v>44481</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0.69137731481481479</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1337.6</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="4">
-        <v>44481</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0.68931712962962965</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1303.7</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="4">
-        <v>44481</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.48953703703703705</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1329.7</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="4">
-        <v>44481</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0.48222222222222227</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1328.2</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="4">
-        <v>44480</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0.93740740740740736</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1334.9</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" s="4">
-        <v>44480</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0.9356944444444445</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1328.4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15" s="4">
-        <v>44480</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0.91833333333333333</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1341.9</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" s="4">
-        <v>44480</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0.86442129629629638</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1293.3</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="4">
-        <v>44480</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0.55843750000000003</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1343.4</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" s="4">
-        <v>44479</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0.92469907407407403</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1373.6</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B19" s="4">
-        <v>44479</v>
-      </c>
-      <c r="C19" s="5">
-        <v>0.90287037037037043</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1369.3</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="4">
-        <v>44479</v>
-      </c>
-      <c r="C20" s="5">
-        <v>0.89900462962962957</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1338</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="B3" s="6">
+        <v>44497.817789351851</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1198.0999999999999</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="4">
-        <v>44479</v>
-      </c>
-      <c r="C21" s="5">
-        <v>0.71704861111111118</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1355.1</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="B5" s="6">
+        <v>44497.81659722222</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1243.9000000000001</v>
+      </c>
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="4">
-        <v>44479</v>
-      </c>
-      <c r="C22" s="5">
-        <v>0.53983796296296294</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1319.9</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="B7" s="6">
+        <v>44497.65042824074</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1393.3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>91</v>
       </c>
-      <c r="B23" s="4">
-        <v>44478</v>
-      </c>
-      <c r="C23" s="5">
-        <v>0.97303240740740737</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1329.7</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="B9" s="6">
+        <v>44496.893194444441</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1363.1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>92</v>
       </c>
-      <c r="B24" s="4">
-        <v>44478</v>
-      </c>
-      <c r="C24" s="5">
-        <v>0.86820601851851853</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="B11" s="6">
+        <v>44496.88</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1410.9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="B13" s="6">
+        <v>44496.732256944444</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1420.6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>94</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="B15" s="6">
+        <v>44496.43891203704</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1408.9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>95</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="B17" s="6">
+        <v>44496.386307870373</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1400.5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>96</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1343.6</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="B19" s="6">
+        <v>44495.902719907404</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1428.5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>97</v>
       </c>
-      <c r="B25" s="4">
-        <v>44478</v>
-      </c>
-      <c r="C25" s="5">
-        <v>0.86585648148148142</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F25" s="3">
-        <v>1322</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="B21" s="6">
+        <v>44495.775821759256</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1398</v>
+      </c>
+      <c r="F21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="4">
-        <v>44478</v>
-      </c>
-      <c r="C26" s="5">
-        <v>0.6305439814814815</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1341</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="B23" s="6">
+        <v>44495.755694444444</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1411.8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="6">
+        <v>44495.674085648148</v>
+      </c>
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1448.3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>99</v>
       </c>
-      <c r="B27" s="4">
-        <v>44478</v>
-      </c>
-      <c r="C27" s="5">
-        <v>0.52124999999999999</v>
-      </c>
-      <c r="D27" s="3" t="s">
+      <c r="B27" s="6">
+        <v>44495.67260416667</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1345.9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>100</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="B29" s="6">
+        <v>44494.845196759263</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1419.1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>101</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="B31" s="6">
+        <v>44494.84138888889</v>
+      </c>
+      <c r="C31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1431.4</v>
+      </c>
+      <c r="F31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>102</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="B33" s="6">
+        <v>44494.840624999997</v>
+      </c>
+      <c r="C33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1383.1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>103</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="B35" s="6">
+        <v>44494.395150462966</v>
+      </c>
+      <c r="C35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1410.2</v>
+      </c>
+      <c r="F35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>104</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="B37" s="6">
+        <v>44494.290613425925</v>
+      </c>
+      <c r="C37" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1427.4</v>
+      </c>
+      <c r="F37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>105</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="B39" s="6">
+        <v>44493.877592592595</v>
+      </c>
+      <c r="C39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1461.5</v>
+      </c>
+      <c r="F39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>106</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="B41" s="6">
+        <v>44493.876585648148</v>
+      </c>
+      <c r="C41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="7">
+        <v>1379.9</v>
+      </c>
+      <c r="F41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>107</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="B43" s="6">
+        <v>44493.873148148145</v>
+      </c>
+      <c r="C43" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="7">
+        <v>1398.1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>108</v>
       </c>
-      <c r="M27" s="3" t="s">
+      <c r="B45" s="6">
+        <v>44493.872245370374</v>
+      </c>
+      <c r="C45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="7">
+        <v>1409.6</v>
+      </c>
+      <c r="F45" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>109</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="B47" s="6">
+        <v>44493.690162037034</v>
+      </c>
+      <c r="C47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" s="7">
+        <v>1392.8</v>
+      </c>
+      <c r="F47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>110</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="P27" s="3" t="s">
+      <c r="B49" s="6">
+        <v>44492.664479166669</v>
+      </c>
+      <c r="C49" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" s="7">
+        <v>1399.6</v>
+      </c>
+      <c r="F49" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>111</v>
       </c>
-      <c r="Q27" s="3" t="s">
+      <c r="B51" s="6">
+        <v>44492.663819444446</v>
+      </c>
+      <c r="C51" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="7">
+        <v>1425.7</v>
+      </c>
+      <c r="F51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>112</v>
       </c>
-      <c r="R27" s="3" t="s">
+      <c r="B53" s="6">
+        <v>44492.663113425922</v>
+      </c>
+      <c r="C53" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" s="7">
+        <v>1395</v>
+      </c>
+      <c r="F53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>113</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="T27" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="U27" s="3" t="s">
+      <c r="B55" s="6">
+        <v>44492.59946759259</v>
+      </c>
+      <c r="C55" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E55" s="7">
+        <v>1429.4</v>
+      </c>
+      <c r="F55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>114</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="W27" s="3">
-        <v>1341.6</v>
-      </c>
-      <c r="X27" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28" s="4">
-        <v>44477</v>
-      </c>
-      <c r="C28" s="5">
-        <v>0.91833333333333333</v>
-      </c>
-      <c r="D28" s="3" t="s">
+      <c r="B57" s="6">
+        <v>44492.530844907407</v>
+      </c>
+      <c r="C57" t="s">
+        <v>57</v>
+      </c>
+      <c r="D57" t="s">
+        <v>58</v>
+      </c>
+      <c r="E57" s="7">
+        <v>1347</v>
+      </c>
+      <c r="F57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>115</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="B59" s="6">
+        <v>44491.996041666665</v>
+      </c>
+      <c r="C59" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" t="s">
+        <v>58</v>
+      </c>
+      <c r="E59" s="7">
+        <v>1404.1</v>
+      </c>
+      <c r="F59" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>116</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="B61" s="6">
+        <v>44491.993402777778</v>
+      </c>
+      <c r="C61" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" t="s">
+        <v>58</v>
+      </c>
+      <c r="E61" s="7">
+        <v>1394.3</v>
+      </c>
+      <c r="F61" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>117</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="B63" s="6">
+        <v>44491.990069444444</v>
+      </c>
+      <c r="C63" t="s">
+        <v>57</v>
+      </c>
+      <c r="D63" t="s">
+        <v>58</v>
+      </c>
+      <c r="E63" s="7">
+        <v>1383.2</v>
+      </c>
+      <c r="F63" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>118</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="B65" s="6">
+        <v>44491.707546296297</v>
+      </c>
+      <c r="C65" t="s">
+        <v>57</v>
+      </c>
+      <c r="D65" t="s">
+        <v>58</v>
+      </c>
+      <c r="E65" s="7">
+        <v>1377.5</v>
+      </c>
+      <c r="F65" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>119</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="B67" s="6">
+        <v>44491.672731481478</v>
+      </c>
+      <c r="C67" t="s">
+        <v>57</v>
+      </c>
+      <c r="D67" t="s">
+        <v>58</v>
+      </c>
+      <c r="E67" s="7">
+        <v>1391.8</v>
+      </c>
+      <c r="F67" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>120</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="B69" s="6">
+        <v>44490.903692129628</v>
+      </c>
+      <c r="C69" t="s">
+        <v>57</v>
+      </c>
+      <c r="D69" t="s">
+        <v>58</v>
+      </c>
+      <c r="E69" s="7">
+        <v>1395.1</v>
+      </c>
+      <c r="F69" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>121</v>
       </c>
-      <c r="K28" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L28" s="3">
-        <v>1345.2</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B29" s="4">
-        <v>44477</v>
-      </c>
-      <c r="C29" s="5">
-        <v>0.91281249999999992</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="B71" s="6">
+        <v>44490.901423611111</v>
+      </c>
+      <c r="C71" t="s">
+        <v>57</v>
+      </c>
+      <c r="D71" t="s">
+        <v>58</v>
+      </c>
+      <c r="E71" s="7">
+        <v>1359.8</v>
+      </c>
+      <c r="F71" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>122</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="B73" s="6">
+        <v>44490.900092592594</v>
+      </c>
+      <c r="C73" t="s">
+        <v>57</v>
+      </c>
+      <c r="D73" t="s">
+        <v>58</v>
+      </c>
+      <c r="E73" s="7">
+        <v>1359.4</v>
+      </c>
+      <c r="F73" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>123</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="B75" s="6">
+        <v>44490.60696759259</v>
+      </c>
+      <c r="C75" t="s">
+        <v>57</v>
+      </c>
+      <c r="D75" t="s">
+        <v>58</v>
+      </c>
+      <c r="E75" s="7">
+        <v>1418.4</v>
+      </c>
+      <c r="F75" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>124</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I29" s="3" t="s">
+      <c r="B77" s="6">
+        <v>44490.484259259261</v>
+      </c>
+      <c r="C77" t="s">
+        <v>57</v>
+      </c>
+      <c r="D77" t="s">
+        <v>58</v>
+      </c>
+      <c r="E77" s="7">
+        <v>1382.7</v>
+      </c>
+      <c r="F77" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>125</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="B79" s="6">
+        <v>44489.953449074077</v>
+      </c>
+      <c r="C79" t="s">
+        <v>57</v>
+      </c>
+      <c r="D79" t="s">
+        <v>58</v>
+      </c>
+      <c r="E79" s="7">
+        <v>1376.6</v>
+      </c>
+      <c r="F79" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>125</v>
+      </c>
+      <c r="B81" s="6">
+        <v>44489.931574074071</v>
+      </c>
+      <c r="C81" t="s">
+        <v>57</v>
+      </c>
+      <c r="D81" t="s">
+        <v>58</v>
+      </c>
+      <c r="E81" s="7">
+        <v>1362.6</v>
+      </c>
+      <c r="F81" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>126</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="B83" s="6">
+        <v>44489.871122685188</v>
+      </c>
+      <c r="C83" t="s">
+        <v>57</v>
+      </c>
+      <c r="D83" t="s">
+        <v>58</v>
+      </c>
+      <c r="E83" s="7">
+        <v>1390.1</v>
+      </c>
+      <c r="F83" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>127</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="M29" s="3">
-        <v>1335.2</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B30" s="4">
-        <v>44477</v>
-      </c>
-      <c r="C30" s="5">
-        <v>0.66548611111111111</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E30" s="3" t="s">
+      <c r="B85" s="6">
+        <v>44489.85527777778</v>
+      </c>
+      <c r="C85" t="s">
+        <v>57</v>
+      </c>
+      <c r="D85" t="s">
+        <v>58</v>
+      </c>
+      <c r="E85" s="7">
+        <v>1415</v>
+      </c>
+      <c r="F85" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>128</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="B87" s="6">
+        <v>44489.854479166665</v>
+      </c>
+      <c r="C87" t="s">
+        <v>57</v>
+      </c>
+      <c r="D87" t="s">
+        <v>58</v>
+      </c>
+      <c r="E87" s="7">
+        <v>1442</v>
+      </c>
+      <c r="F87" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>129</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="B89" s="6">
+        <v>44488.908275462964</v>
+      </c>
+      <c r="C89" t="s">
+        <v>57</v>
+      </c>
+      <c r="D89" t="s">
+        <v>58</v>
+      </c>
+      <c r="E89" s="7">
+        <v>1401.7</v>
+      </c>
+      <c r="F89" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>130</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="B91" s="6">
+        <v>44488.902361111112</v>
+      </c>
+      <c r="C91" t="s">
+        <v>57</v>
+      </c>
+      <c r="D91" t="s">
+        <v>58</v>
+      </c>
+      <c r="E91" s="7">
+        <v>1432.3</v>
+      </c>
+      <c r="F91" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>131</v>
       </c>
-      <c r="I30" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J30" s="3" t="s">
+      <c r="B93" s="6">
+        <v>44488.900567129633</v>
+      </c>
+      <c r="C93" t="s">
+        <v>57</v>
+      </c>
+      <c r="D93" t="s">
+        <v>58</v>
+      </c>
+      <c r="E93" s="7">
+        <v>1381.5</v>
+      </c>
+      <c r="F93" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>132</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="B95" s="6">
+        <v>44488.899282407408</v>
+      </c>
+      <c r="C95" t="s">
+        <v>57</v>
+      </c>
+      <c r="D95" t="s">
+        <v>58</v>
+      </c>
+      <c r="E95" s="7">
+        <v>1337.7</v>
+      </c>
+      <c r="F95" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEBEF88-9581-476F-9A82-89B7867E6C1B}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="23.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>133</v>
       </c>
-      <c r="L30" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="P30" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q30" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="R30" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="S30" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="T30" s="3">
-        <v>1374.6</v>
-      </c>
-      <c r="U30" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B31" s="4">
-        <v>44477</v>
-      </c>
-      <c r="C31" s="5">
-        <v>0.51187499999999997</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B32" s="4">
-        <v>44477</v>
-      </c>
-      <c r="C32" s="5">
-        <v>0.42456018518518518</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="O32" s="3">
-        <v>1375.3</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B33" s="4">
-        <v>44476</v>
-      </c>
-      <c r="C33" s="5">
-        <v>0.8771296296296297</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>1332.5</v>
-      </c>
-      <c r="R33" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B34" s="4">
-        <v>44476</v>
-      </c>
-      <c r="C34" s="5">
-        <v>0.873113425925926</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F34" s="3">
-        <v>29</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="N34" s="3">
-        <v>1285</v>
-      </c>
-      <c r="O34" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B35" s="4">
-        <v>44476</v>
-      </c>
-      <c r="C35" s="5">
-        <v>0.38321759259259264</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="N35" s="3">
-        <v>1353</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B36" s="4">
-        <v>44476</v>
-      </c>
-      <c r="C36" s="5">
-        <v>0.36575231481481479</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K36" s="3">
-        <v>1276.5999999999999</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C37" s="4">
-        <v>44476</v>
-      </c>
-      <c r="D37" s="5">
-        <v>0.30876157407407406</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K37" s="3">
-        <v>1327.2</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B38" s="4">
-        <v>44475</v>
-      </c>
-      <c r="C38" s="5">
-        <v>0.73395833333333327</v>
-      </c>
-      <c r="D38" s="3">
-        <v>292</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="O38" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="P38" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q38" s="3">
-        <v>1362.3</v>
-      </c>
-      <c r="R38" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B39" s="4">
-        <v>44475</v>
-      </c>
-      <c r="C39" s="5">
-        <v>0.73259259259259257</v>
-      </c>
-      <c r="D39" s="3">
-        <v>291</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H39" s="3">
-        <v>1330.3</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B40" s="4">
-        <v>44475</v>
-      </c>
-      <c r="C40" s="5">
-        <v>0.73108796296296286</v>
-      </c>
-      <c r="D40" s="6">
-        <v>12.083333333333334</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="I40" s="3">
-        <v>5</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K40" s="3">
-        <v>1378.9</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B41" s="4">
-        <v>44475</v>
-      </c>
-      <c r="C41" s="5">
-        <v>0.72127314814814814</v>
-      </c>
-      <c r="D41" s="3">
-        <v>29</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B42" s="4">
-        <v>44475</v>
-      </c>
-      <c r="C42" s="5">
-        <v>0.2152314814814815</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E42" s="3">
-        <v>282</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>1321.6</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B43" s="4">
-        <v>44474</v>
-      </c>
-      <c r="C43" s="5">
-        <v>0.50567129629629626</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E43" s="3">
-        <v>281</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L43" s="3">
-        <v>1324.3</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B44" s="4">
-        <v>44474</v>
-      </c>
-      <c r="C44" s="5">
-        <v>0.49531249999999999</v>
-      </c>
-      <c r="D44" s="3">
-        <v>280</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B45" s="4">
-        <v>44474</v>
-      </c>
-      <c r="C45" s="5">
-        <v>0.41590277777777779</v>
-      </c>
-      <c r="D45" s="3">
-        <v>280</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B46" s="4">
-        <v>44474</v>
-      </c>
-      <c r="C46" s="5">
-        <v>0.38921296296296298</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1161.4000000000001</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B47" s="4">
-        <v>44474</v>
-      </c>
-      <c r="C47" s="5">
-        <v>0.31592592592592594</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G47" s="3">
-        <v>1192</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B48" s="4">
-        <v>44473</v>
-      </c>
-      <c r="C48" s="5">
-        <v>0.92305555555555552</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
-      <c r="U49" s="3"/>
-      <c r="V49" s="3"/>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>56</v>
-      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
